--- a/miniproject/template/Lectures/Lecture 4.xlsx
+++ b/miniproject/template/Lectures/Lecture 4.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S_AGI\Documents\GitHub\AI_teaching_project\miniproject\template\Lectures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DE8AF7-DCDF-4002-BD53-364670413DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11400"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="unit 4" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="567">
   <si>
     <t>Unit</t>
   </si>
@@ -2365,18 +2382,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2448,159 +2459,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2613,194 +2473,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2838,251 +2512,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3136,61 +2568,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3448,39 +2836,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z204"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66071428571429" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="8.66071428571429" style="2"/>
-    <col min="3" max="3" width="18.3303571428571" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.6607142857143" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.1607142857143" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.6607142857143" style="4" customWidth="1"/>
-    <col min="7" max="7" width="32.6607142857143" style="3" customWidth="1"/>
-    <col min="8" max="8" width="43.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.5" style="3" customWidth="1"/>
-    <col min="10" max="14" width="8.66071428571429" style="2"/>
+    <col min="1" max="2" width="8.6640625" style="2"/>
+    <col min="3" max="3" width="18.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="43.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.44140625" style="3" customWidth="1"/>
+    <col min="10" max="14" width="8.6640625" style="2"/>
     <col min="15" max="15" width="12" style="2" customWidth="1"/>
-    <col min="16" max="20" width="23.3303571428571" style="2" customWidth="1"/>
-    <col min="21" max="21" width="15.8303571428571" style="2" customWidth="1"/>
-    <col min="22" max="24" width="23.3303571428571" style="2" customWidth="1"/>
-    <col min="25" max="25" width="15.8303571428571" style="2" customWidth="1"/>
-    <col min="26" max="26" width="20.3303571428571" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="8.66071428571429" style="2"/>
+    <col min="16" max="20" width="23.33203125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15.77734375" style="2" customWidth="1"/>
+    <col min="22" max="24" width="23.33203125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="15.77734375" style="2" customWidth="1"/>
+    <col min="26" max="26" width="20.33203125" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" spans="1:26">
+    <row r="1" spans="1:26" ht="26.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3560,7 +2948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="35" spans="1:26">
+    <row r="2" spans="1:26" ht="39.6">
       <c r="A2" s="2">
         <v>4</v>
       </c>
@@ -3648,7 +3036,7 @@
         <v>How to say "街上有一个男人" ?</v>
       </c>
     </row>
-    <row r="3" ht="35" spans="1:26">
+    <row r="3" spans="1:26" ht="39.6">
       <c r="A3" s="2">
         <v>4</v>
       </c>
@@ -3736,7 +3124,7 @@
         <v>How to say "普通人" ?</v>
       </c>
     </row>
-    <row r="4" ht="35" spans="1:26">
+    <row r="4" spans="1:26" ht="52.8">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -3824,7 +3212,7 @@
         <v>How to say "带一个小孩的女人" ?</v>
       </c>
     </row>
-    <row r="5" ht="35" spans="1:26">
+    <row r="5" spans="1:26" ht="52.8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3912,7 +3300,7 @@
         <v>How to say "怀孕的女人" ?</v>
       </c>
     </row>
-    <row r="6" ht="35" spans="1:26">
+    <row r="6" spans="1:26" ht="39.6">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -4000,7 +3388,7 @@
         <v>How to say "普通人" ?</v>
       </c>
     </row>
-    <row r="7" ht="47" spans="1:26">
+    <row r="7" spans="1:26" ht="52.8">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -4090,7 +3478,7 @@
         <v>How to say "他的体重猛增到200公斤" ?</v>
       </c>
     </row>
-    <row r="8" ht="35" spans="1:26">
+    <row r="8" spans="1:26" ht="52.8">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -4180,7 +3568,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" ht="36" spans="1:26">
+    <row r="9" spans="1:26" ht="39.6">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -4270,7 +3658,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" ht="35" spans="1:26">
+    <row r="10" spans="1:26" ht="52.8">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -4360,7 +3748,7 @@
         <v>How to say "他手里温柔地捧着一杯饮料" ?</v>
       </c>
     </row>
-    <row r="11" ht="31.5" customHeight="1" spans="1:26">
+    <row r="11" spans="1:26" ht="31.5" customHeight="1">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -4450,7 +3838,7 @@
         <v>How to say "我们热烈讨论并且敲定了结果" ?</v>
       </c>
     </row>
-    <row r="12" ht="47" spans="1:26">
+    <row r="12" spans="1:26" ht="66">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -4540,7 +3928,7 @@
         <v>How to say "他们为权力和地位斗争" ?</v>
       </c>
     </row>
-    <row r="13" ht="24" spans="1:26">
+    <row r="13" spans="1:26" ht="26.4">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -4630,7 +4018,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="47" spans="1:26">
+    <row r="14" spans="1:26" ht="66">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -4720,7 +4108,7 @@
         <v>How to say "美国和中国掩盖他们的意见不合" ?</v>
       </c>
     </row>
-    <row r="15" ht="47" spans="1:26">
+    <row r="15" spans="1:26" ht="52.8">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -4810,7 +4198,7 @@
         <v>How to say "他被他父母送出国" ?</v>
       </c>
     </row>
-    <row r="16" ht="47" spans="1:26">
+    <row r="16" spans="1:26" ht="52.8">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -4900,7 +4288,7 @@
         <v>How to say "他在他哥哥面前显得黯然失色" ?</v>
       </c>
     </row>
-    <row r="17" ht="24" spans="1:26">
+    <row r="17" spans="1:26" ht="39.6">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -4990,7 +4378,7 @@
         <v>How to say "日食" ?</v>
       </c>
     </row>
-    <row r="18" ht="35" spans="1:26">
+    <row r="18" spans="1:26" ht="52.8">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -5080,7 +4468,7 @@
         <v>How to say "球很快很准" ?</v>
       </c>
     </row>
-    <row r="19" ht="35" spans="1:26">
+    <row r="19" spans="1:26" ht="52.8">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -5170,7 +4558,7 @@
         <v>How to say "他对数据进行了仔细搜索" ?</v>
       </c>
     </row>
-    <row r="20" ht="29" spans="1:26">
+    <row r="20" spans="1:26" ht="31.2">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -5260,7 +4648,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" ht="18" spans="1:26">
+    <row r="21" spans="1:26" ht="15.6">
       <c r="A21" s="2">
         <v>4</v>
       </c>
@@ -5350,7 +4738,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" ht="35" spans="1:26">
+    <row r="22" spans="1:26" ht="52.8">
       <c r="A22" s="2">
         <v>4</v>
       </c>
@@ -5440,7 +4828,7 @@
         <v>How to say "她悠闲地走进房间" ?</v>
       </c>
     </row>
-    <row r="23" ht="58" spans="1:26">
+    <row r="23" spans="1:26" ht="79.2">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -5530,7 +4918,7 @@
         <v>How to say "大流行的影响波及整个经济" ?</v>
       </c>
     </row>
-    <row r="24" ht="47" spans="1:26">
+    <row r="24" spans="1:26" ht="66">
       <c r="A24" s="2">
         <v>4</v>
       </c>
@@ -5620,7 +5008,7 @@
         <v>How to say "星期天的黎明明媚而美丽" ?</v>
       </c>
     </row>
-    <row r="25" ht="35" spans="1:26">
+    <row r="25" spans="1:26" ht="39.6">
       <c r="A25" s="2">
         <v>4</v>
       </c>
@@ -5710,7 +5098,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" ht="28" spans="1:26">
+    <row r="26" spans="1:26" ht="31.2">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -5800,7 +5188,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" ht="18" spans="1:26">
+    <row r="27" spans="1:26" ht="15.6">
       <c r="A27" s="2">
         <v>4</v>
       </c>
@@ -5890,7 +5278,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" ht="35" spans="1:26">
+    <row r="28" spans="1:26" ht="52.8">
       <c r="A28" s="2">
         <v>4</v>
       </c>
@@ -5980,7 +5368,7 @@
         <v>How to say "股市由于病毒大跌" ?</v>
       </c>
     </row>
-    <row r="29" ht="24" spans="1:26">
+    <row r="29" spans="1:26" ht="39.6">
       <c r="A29" s="2">
         <v>4</v>
       </c>
@@ -6070,7 +5458,7 @@
         <v>How to say "整天躺在沙发上的人" ?</v>
       </c>
     </row>
-    <row r="30" ht="24" spans="1:26">
+    <row r="30" spans="1:26" ht="39.6">
       <c r="A30" s="2">
         <v>4</v>
       </c>
@@ -6160,7 +5548,7 @@
         <v>How to say "整天玩电脑的人" ?</v>
       </c>
     </row>
-    <row r="31" ht="36" spans="1:26">
+    <row r="31" spans="1:26" ht="39.6">
       <c r="A31" s="2">
         <v>4</v>
       </c>
@@ -6250,7 +5638,7 @@
         <v>How to say "不要把工作推迟到星期一，现在就完成" ?</v>
       </c>
     </row>
-    <row r="32" ht="24" spans="1:26">
+    <row r="32" spans="1:26" ht="26.4">
       <c r="A32" s="2">
         <v>4</v>
       </c>
@@ -6340,7 +5728,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" ht="35" spans="1:26">
+    <row r="33" spans="1:26" ht="39.6">
       <c r="A33" s="2">
         <v>4</v>
       </c>
@@ -6430,7 +5818,7 @@
         <v>How to say "她打扮得漂漂亮亮的" ?</v>
       </c>
     </row>
-    <row r="34" ht="24" spans="1:26">
+    <row r="34" spans="1:26" ht="26.4">
       <c r="A34" s="2">
         <v>4</v>
       </c>
@@ -6520,7 +5908,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="36" spans="1:26">
+    <row r="35" spans="1:26" ht="52.8">
       <c r="A35" s="2">
         <v>4</v>
       </c>
@@ -6610,7 +5998,7 @@
         <v>How to say "他像松鼠一样屯粮，未雨绸缪" ?</v>
       </c>
     </row>
-    <row r="36" ht="29" spans="1:26">
+    <row r="36" spans="1:26" ht="31.2">
       <c r="A36" s="2">
         <v>4</v>
       </c>
@@ -6700,7 +6088,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="15" spans="1:26">
+    <row r="37" spans="1:26" ht="15.6">
       <c r="A37" s="2">
         <v>4</v>
       </c>
@@ -6790,7 +6178,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="35" spans="1:26">
+    <row r="38" spans="1:26" ht="52.8">
       <c r="A38" s="2">
         <v>4</v>
       </c>
@@ -6880,7 +6268,7 @@
         <v>How to say "他猛烈地不停打击他的对手 " ?</v>
       </c>
     </row>
-    <row r="39" ht="35" spans="1:26">
+    <row r="39" spans="1:26" ht="52.8">
       <c r="A39" s="2">
         <v>4</v>
       </c>
@@ -6970,7 +6358,7 @@
         <v>How to say "椅子表面上覆盖了一层灰" ?</v>
       </c>
     </row>
-    <row r="40" ht="47" spans="1:26">
+    <row r="40" spans="1:26" ht="66">
       <c r="A40" s="2">
         <v>4</v>
       </c>
@@ -7060,7 +6448,7 @@
         <v>How to say "他试图为他的项目争取支持" ?</v>
       </c>
     </row>
-    <row r="41" ht="24" spans="1:26">
+    <row r="41" spans="1:26" ht="26.4">
       <c r="A41" s="2">
         <v>4</v>
       </c>
@@ -7150,7 +6538,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" ht="35" spans="1:26">
+    <row r="42" spans="1:26" ht="39.6">
       <c r="A42" s="2">
         <v>4</v>
       </c>
@@ -7240,7 +6628,7 @@
         <v>How to say "难以置信" ?</v>
       </c>
     </row>
-    <row r="43" ht="35" spans="1:26">
+    <row r="43" spans="1:26" ht="52.8">
       <c r="A43" s="2">
         <v>4</v>
       </c>
@@ -7330,7 +6718,7 @@
         <v>How to say "他回答得很好" ?</v>
       </c>
     </row>
-    <row r="44" ht="35" spans="1:26">
+    <row r="44" spans="1:26" ht="52.8">
       <c r="A44" s="2">
         <v>4</v>
       </c>
@@ -7420,7 +6808,7 @@
         <v>How to say "房价像火箭一样猛涨" ?</v>
       </c>
     </row>
-    <row r="45" ht="47" spans="1:26">
+    <row r="45" spans="1:26" ht="66">
       <c r="A45" s="2">
         <v>4</v>
       </c>
@@ -7510,7 +6898,7 @@
         <v>How to say "操场上覆盖着雪" ?</v>
       </c>
     </row>
-    <row r="46" ht="35" spans="1:26">
+    <row r="46" spans="1:26" ht="52.8">
       <c r="A46" s="2">
         <v>4</v>
       </c>
@@ -7600,7 +6988,7 @@
         <v>How to say "这个计划被搁置了" ?</v>
       </c>
     </row>
-    <row r="47" ht="35" spans="1:26">
+    <row r="47" spans="1:26" ht="52.8">
       <c r="A47" s="2">
         <v>4</v>
       </c>
@@ -7690,7 +7078,7 @@
         <v>How to say "他把差额塞进了自己的腰包" ?</v>
       </c>
     </row>
-    <row r="48" ht="24" spans="1:26">
+    <row r="48" spans="1:26" ht="39.6">
       <c r="A48" s="2">
         <v>4</v>
       </c>
@@ -7756,7 +7144,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" ht="15" spans="1:26">
+    <row r="49" spans="1:26" ht="15.6">
       <c r="A49" s="2">
         <v>4</v>
       </c>
@@ -7822,7 +7210,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" ht="36" spans="1:26">
+    <row r="50" spans="1:26" ht="52.8">
       <c r="A50" s="2">
         <v>4</v>
       </c>
@@ -7888,7 +7276,7 @@
         <v>How to say "英国将离开欧盟，没有特殊情况和借口" ?</v>
       </c>
     </row>
-    <row r="51" ht="47" spans="1:26">
+    <row r="51" spans="1:26" ht="52.8">
       <c r="A51" s="2">
         <v>4</v>
       </c>
@@ -7954,7 +7342,7 @@
         <v>How to say "他们的关系有了嫌隙" ?</v>
       </c>
     </row>
-    <row r="52" ht="35" spans="1:26">
+    <row r="52" spans="1:26" ht="39.6">
       <c r="A52" s="2">
         <v>4</v>
       </c>
@@ -8020,7 +7408,7 @@
         <v>How to say "完全损毁" ?</v>
       </c>
     </row>
-    <row r="53" ht="15" spans="1:26">
+    <row r="53" spans="1:26" ht="15.6">
       <c r="A53" s="2">
         <v>4</v>
       </c>
@@ -8086,7 +7474,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="28" spans="1:26">
+    <row r="54" spans="1:26" s="1" customFormat="1" ht="31.2">
       <c r="A54" s="2">
         <v>4</v>
       </c>
@@ -8158,7 +7546,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" ht="15" spans="1:26">
+    <row r="55" spans="1:26" ht="15.6">
       <c r="A55" s="2">
         <v>4</v>
       </c>
@@ -8224,7 +7612,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" ht="35" spans="1:26">
+    <row r="56" spans="1:26" ht="39.6">
       <c r="A56" s="2">
         <v>4</v>
       </c>
@@ -8290,7 +7678,7 @@
         <v>How to say "这个是如此过时" ?</v>
       </c>
     </row>
-    <row r="57" ht="47" spans="1:26">
+    <row r="57" spans="1:26" ht="52.8">
       <c r="A57" s="2">
         <v>4</v>
       </c>
@@ -8356,7 +7744,7 @@
         <v>How to say "别向我推销这个想法，那太过时了" ?</v>
       </c>
     </row>
-    <row r="58" ht="47" spans="1:26">
+    <row r="58" spans="1:26" ht="52.8">
       <c r="A58" s="2">
         <v>4</v>
       </c>
@@ -8422,7 +7810,7 @@
         <v>How to say "中国和法国的友谊赛" ?</v>
       </c>
     </row>
-    <row r="59" ht="24" spans="1:26">
+    <row r="59" spans="1:26" ht="39.6">
       <c r="A59" s="2">
         <v>4</v>
       </c>
@@ -8488,7 +7876,7 @@
         <v>How to say "我本人" ?</v>
       </c>
     </row>
-    <row r="60" ht="29" spans="1:26">
+    <row r="60" spans="1:26" ht="31.2">
       <c r="A60" s="2">
         <v>4</v>
       </c>
@@ -8554,7 +7942,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" ht="47" spans="1:26">
+    <row r="61" spans="1:26" ht="66">
       <c r="A61" s="2">
         <v>4</v>
       </c>
@@ -8620,7 +8008,7 @@
         <v>How to say "他的表演使观众大为惊叹" ?</v>
       </c>
     </row>
-    <row r="62" ht="24" spans="1:26">
+    <row r="62" spans="1:26" ht="26.4">
       <c r="A62" s="2">
         <v>4</v>
       </c>
@@ -8686,7 +8074,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" ht="35" spans="1:26">
+    <row r="63" spans="1:26" ht="52.8">
       <c r="A63" s="2">
         <v>4</v>
       </c>
@@ -8750,7 +8138,7 @@
         <v>How to say "扮猪吃老虎" ?</v>
       </c>
     </row>
-    <row r="64" ht="35" spans="1:26">
+    <row r="64" spans="1:26" ht="39.6">
       <c r="A64" s="2">
         <v>4</v>
       </c>
@@ -8814,7 +8202,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" ht="15" spans="1:26">
+    <row r="65" spans="1:26" ht="31.2">
       <c r="A65" s="2">
         <v>4</v>
       </c>
@@ -8878,7 +8266,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" ht="35" spans="1:26">
+    <row r="66" spans="1:26" ht="39.6">
       <c r="A66" s="2">
         <v>4</v>
       </c>
@@ -8942,7 +8330,7 @@
         <v>How to say "我看起来很年轻" ?</v>
       </c>
     </row>
-    <row r="67" ht="47" spans="1:26">
+    <row r="67" spans="1:26" ht="66">
       <c r="A67" s="2">
         <v>4</v>
       </c>
@@ -9006,7 +8394,7 @@
         <v>How to say "他不努力去活，就等于等死" ?</v>
       </c>
     </row>
-    <row r="68" ht="47" spans="1:26">
+    <row r="68" spans="1:26" ht="52.8">
       <c r="A68" s="2">
         <v>4</v>
       </c>
@@ -9070,7 +8458,7 @@
         <v>How to say "我是自己无知的受害者" ?</v>
       </c>
     </row>
-    <row r="69" ht="28" spans="1:26">
+    <row r="69" spans="1:26" ht="31.2">
       <c r="A69" s="2">
         <v>4</v>
       </c>
@@ -9134,7 +8522,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" ht="35" spans="1:26">
+    <row r="70" spans="1:26" ht="52.8">
       <c r="A70" s="2">
         <v>4</v>
       </c>
@@ -9198,7 +8586,7 @@
         <v>How to say "无法被忽视的沉默" ?</v>
       </c>
     </row>
-    <row r="71" ht="35" spans="1:26">
+    <row r="71" spans="1:26" ht="52.8">
       <c r="A71" s="2">
         <v>4</v>
       </c>
@@ -9262,7 +8650,7 @@
         <v>How to say "显而易见" ?</v>
       </c>
     </row>
-    <row r="72" ht="24" spans="1:26">
+    <row r="72" spans="1:26" ht="39.6">
       <c r="A72" s="2">
         <v>4</v>
       </c>
@@ -9326,7 +8714,7 @@
         <v>How to say "花哨的颜色" ?</v>
       </c>
     </row>
-    <row r="73" ht="24" spans="1:26">
+    <row r="73" spans="1:26" ht="39.6">
       <c r="A73" s="2">
         <v>4</v>
       </c>
@@ -9390,7 +8778,7 @@
         <v>How to say "花哨的衬衫" ?</v>
       </c>
     </row>
-    <row r="74" ht="28" spans="1:26">
+    <row r="74" spans="1:26" ht="39.6">
       <c r="A74" s="2">
         <v>4</v>
       </c>
@@ -9454,7 +8842,7 @@
         <v>How to say "白噪音" ?</v>
       </c>
     </row>
-    <row r="75" ht="28" spans="1:26">
+    <row r="75" spans="1:26" ht="39.6">
       <c r="A75" s="2">
         <v>4</v>
       </c>
@@ -9518,7 +8906,7 @@
         <v>How to say "华丽的散文" ?</v>
       </c>
     </row>
-    <row r="76" ht="56" spans="1:26">
+    <row r="76" spans="1:26" ht="62.4">
       <c r="A76" s="2">
         <v>4</v>
       </c>
@@ -9582,7 +8970,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" ht="15" spans="1:26">
+    <row r="77" spans="1:26" ht="15.6">
       <c r="A77" s="2">
         <v>4</v>
       </c>
@@ -9646,7 +9034,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" ht="24" spans="1:26">
+    <row r="78" spans="1:26" ht="39.6">
       <c r="A78" s="2">
         <v>4</v>
       </c>
@@ -9710,7 +9098,7 @@
         <v>How to say "红肿的伤口" ?</v>
       </c>
     </row>
-    <row r="79" ht="35" spans="1:26">
+    <row r="79" spans="1:26" ht="39.6">
       <c r="A79" s="2">
         <v>4</v>
       </c>
@@ -9774,7 +9162,7 @@
         <v>How to say "他的文字简洁利落" ?</v>
       </c>
     </row>
-    <row r="80" ht="35" spans="1:26">
+    <row r="80" spans="1:26" ht="39.6">
       <c r="A80" s="2">
         <v>4</v>
       </c>
@@ -9838,7 +9226,7 @@
         <v>How to say "在破晓时" ?</v>
       </c>
     </row>
-    <row r="81" ht="24" spans="1:26">
+    <row r="81" spans="1:26" ht="26.4">
       <c r="A81" s="2">
         <v>4</v>
       </c>
@@ -9902,7 +9290,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" ht="28" spans="1:26">
+    <row r="82" spans="1:26" ht="31.2">
       <c r="A82" s="2">
         <v>4</v>
       </c>
@@ -9966,7 +9354,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" ht="28" spans="1:26">
+    <row r="83" spans="1:26" ht="31.2">
       <c r="A83" s="2">
         <v>4</v>
       </c>
@@ -10030,7 +9418,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" ht="36" spans="1:26">
+    <row r="84" spans="1:26" ht="52.8">
       <c r="A84" s="2">
         <v>4</v>
       </c>
@@ -10094,7 +9482,7 @@
         <v>How to say "如果网球触线，就算99%出局，它还是入球" ?</v>
       </c>
     </row>
-    <row r="85" ht="35" spans="1:26">
+    <row r="85" spans="1:26" ht="52.8">
       <c r="A85" s="2">
         <v>4</v>
       </c>
@@ -10158,7 +9546,7 @@
         <v>How to say "Boris故意把头发弄得凌乱" ?</v>
       </c>
     </row>
-    <row r="86" ht="47" spans="1:26">
+    <row r="86" spans="1:26" ht="66">
       <c r="A86" s="2">
         <v>4</v>
       </c>
@@ -10222,7 +9610,7 @@
         <v>How to say "我高尔夫打得时好时坏" ?</v>
       </c>
     </row>
-    <row r="87" ht="36" spans="1:26">
+    <row r="87" spans="1:26" ht="52.8">
       <c r="A87" s="2">
         <v>4</v>
       </c>
@@ -10286,7 +9674,7 @@
         <v>How to say "只说一半真话那说的全部都是假话" ?</v>
       </c>
     </row>
-    <row r="88" ht="29" spans="1:26">
+    <row r="88" spans="1:26" ht="31.2">
       <c r="A88" s="2">
         <v>4</v>
       </c>
@@ -10350,7 +9738,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" ht="35" spans="1:26">
+    <row r="89" spans="1:26" ht="52.8">
       <c r="A89" s="2">
         <v>4</v>
       </c>
@@ -10414,7 +9802,7 @@
         <v>How to say "身在心不在" ?</v>
       </c>
     </row>
-    <row r="90" ht="24" spans="1:26">
+    <row r="90" spans="1:26" ht="26.4">
       <c r="A90" s="2">
         <v>4</v>
       </c>
@@ -10478,7 +9866,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" ht="47" spans="1:26">
+    <row r="91" spans="1:26" ht="52.8">
       <c r="A91" s="2">
         <v>4</v>
       </c>
@@ -10542,7 +9930,7 @@
         <v>How to say "它地处偏僻" ?</v>
       </c>
     </row>
-    <row r="92" ht="15" spans="1:26">
+    <row r="92" spans="1:26" ht="15.6">
       <c r="A92" s="2">
         <v>4</v>
       </c>
@@ -10606,7 +9994,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" ht="15" spans="1:26">
+    <row r="93" spans="1:26" ht="15.6">
       <c r="A93" s="2">
         <v>4</v>
       </c>
@@ -10670,7 +10058,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" ht="53" spans="1:26">
+    <row r="94" spans="1:26" ht="66">
       <c r="A94" s="2">
         <v>4</v>
       </c>
@@ -10734,7 +10122,7 @@
         <v>How to say "尝试一些橙汁。 （阳光灿烂的加利福尼亚州以生产橘子而闻名）" ?</v>
       </c>
     </row>
-    <row r="95" ht="35" spans="1:26">
+    <row r="95" spans="1:26" ht="39.6">
       <c r="A95" s="2">
         <v>4</v>
       </c>
@@ -10798,7 +10186,7 @@
         <v>How to say "品尝那种感觉" ?</v>
       </c>
     </row>
-    <row r="96" ht="47" spans="1:26">
+    <row r="96" spans="1:26" ht="66">
       <c r="A96" s="2">
         <v>4</v>
       </c>
@@ -10862,7 +10250,7 @@
         <v>How to say "友谊就像是一起打桌球的声音" ?</v>
       </c>
     </row>
-    <row r="97" ht="47" spans="1:26">
+    <row r="97" spans="1:26" ht="52.8">
       <c r="A97" s="2">
         <v>4</v>
       </c>
@@ -10926,7 +10314,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" ht="58" spans="1:26">
+    <row r="98" spans="1:26" ht="79.2">
       <c r="A98" s="2">
         <v>4</v>
       </c>
@@ -10990,7 +10378,7 @@
         <v>How to say "只靠人数众多取胜" ?</v>
       </c>
     </row>
-    <row r="99" ht="35" spans="1:26">
+    <row r="99" spans="1:26" ht="52.8">
       <c r="A99" s="2">
         <v>4</v>
       </c>
@@ -11054,7 +10442,7 @@
         <v>How to say "可以看到无尽头" ?</v>
       </c>
     </row>
-    <row r="100" ht="35" spans="1:26">
+    <row r="100" spans="1:26" ht="52.8">
       <c r="A100" s="2">
         <v>4</v>
       </c>
@@ -11118,7 +10506,7 @@
         <v>How to say "她的香水有什么味道" ?</v>
       </c>
     </row>
-    <row r="101" ht="36" spans="1:26">
+    <row r="101" spans="1:26" ht="52.8">
       <c r="A101" s="2">
         <v>4</v>
       </c>
@@ -11182,7 +10570,7 @@
         <v>How to say "很久之前（可以用来代指年龄）" ?</v>
       </c>
     </row>
-    <row r="102" ht="35" spans="1:26">
+    <row r="102" spans="1:26" ht="52.8">
       <c r="A102" s="2">
         <v>4</v>
       </c>
@@ -11246,7 +10634,7 @@
         <v>How to say "他讲话非常快" ?</v>
       </c>
     </row>
-    <row r="103" ht="58" spans="1:26">
+    <row r="103" spans="1:26" ht="79.2">
       <c r="A103" s="2">
         <v>4</v>
       </c>
@@ -11310,7 +10698,7 @@
         <v>How to say "我青年时代的中产阶级美国与现在完全不同" ?</v>
       </c>
     </row>
-    <row r="104" ht="15" spans="1:26">
+    <row r="104" spans="1:26" ht="31.2">
       <c r="A104" s="2">
         <v>4</v>
       </c>
@@ -11374,7 +10762,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" ht="24" spans="1:26">
+    <row r="105" spans="1:26" ht="26.4">
       <c r="A105" s="2">
         <v>4</v>
       </c>
@@ -11438,7 +10826,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" ht="47" spans="1:26">
+    <row r="106" spans="1:26" ht="66">
       <c r="A106" s="2">
         <v>4</v>
       </c>
@@ -11502,7 +10890,7 @@
         <v>How to say "有430个学生就有430种理由不关闭学校" ?</v>
       </c>
     </row>
-    <row r="107" ht="35" spans="1:26">
+    <row r="107" spans="1:26" ht="52.8">
       <c r="A107" s="2">
         <v>4</v>
       </c>
@@ -11566,7 +10954,7 @@
         <v>How to say "死前把秘密说出来" ?</v>
       </c>
     </row>
-    <row r="108" ht="35" spans="1:26">
+    <row r="108" spans="1:26" ht="39.6">
       <c r="A108" s="2">
         <v>4</v>
       </c>
@@ -11632,7 +11020,7 @@
         <v>How to say "凭良心投票" ?</v>
       </c>
     </row>
-    <row r="109" ht="28" spans="1:26">
+    <row r="109" spans="1:26" ht="31.2">
       <c r="A109" s="2">
         <v>4</v>
       </c>
@@ -11698,7 +11086,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" ht="28" spans="1:26">
+    <row r="110" spans="1:26" ht="31.2">
       <c r="A110" s="2">
         <v>4</v>
       </c>
@@ -11764,7 +11152,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" ht="28" spans="1:26">
+    <row r="111" spans="1:26" ht="31.2">
       <c r="A111" s="2">
         <v>4</v>
       </c>
@@ -11830,7 +11218,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" ht="35" spans="1:26">
+    <row r="112" spans="1:26" ht="39.6">
       <c r="A112" s="2">
         <v>4</v>
       </c>
@@ -11896,7 +11284,7 @@
         <v>How to say "悲剧即将来临" ?</v>
       </c>
     </row>
-    <row r="113" ht="35" spans="1:26">
+    <row r="113" spans="1:26" ht="39.6">
       <c r="A113" s="2">
         <v>4</v>
       </c>
@@ -11962,7 +11350,7 @@
         <v>How to say "你听懂了吗" ?</v>
       </c>
     </row>
-    <row r="114" ht="35" spans="1:26">
+    <row r="114" spans="1:26" ht="39.6">
       <c r="A114" s="2">
         <v>4</v>
       </c>
@@ -12028,7 +11416,7 @@
         <v>How to say "她活在谎言里" ?</v>
       </c>
     </row>
-    <row r="115" ht="47" spans="1:26">
+    <row r="115" spans="1:26" ht="52.8">
       <c r="A115" s="2">
         <v>4</v>
       </c>
@@ -12094,7 +11482,7 @@
         <v>How to say "他不在演戏，他在成为那个角色" ?</v>
       </c>
     </row>
-    <row r="116" ht="28" spans="1:26">
+    <row r="116" spans="1:26" ht="31.2">
       <c r="A116" s="2">
         <v>4</v>
       </c>
@@ -12160,7 +11548,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" ht="35" spans="1:26">
+    <row r="117" spans="1:26" ht="39.6">
       <c r="A117" s="2">
         <v>4</v>
       </c>
@@ -12226,7 +11614,7 @@
         <v>How to say "他情绪变坏" ?</v>
       </c>
     </row>
-    <row r="118" ht="28" spans="1:26">
+    <row r="118" spans="1:26" ht="31.2">
       <c r="A118" s="2">
         <v>4</v>
       </c>
@@ -12292,7 +11680,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" ht="28" spans="1:26">
+    <row r="119" spans="1:26" ht="39.6">
       <c r="A119" s="2">
         <v>4</v>
       </c>
@@ -12358,7 +11746,7 @@
         <v>How to say "我哪知道" ?</v>
       </c>
     </row>
-    <row r="120" ht="28" spans="1:26">
+    <row r="120" spans="1:26" ht="31.2">
       <c r="A120" s="2">
         <v>4</v>
       </c>
@@ -12424,7 +11812,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" ht="35" spans="1:26">
+    <row r="121" spans="1:26" ht="39.6">
       <c r="A121" s="2">
         <v>4</v>
       </c>
@@ -12490,7 +11878,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" ht="35" spans="1:26">
+    <row r="122" spans="1:26" ht="39.6">
       <c r="A122" s="2">
         <v>4</v>
       </c>
@@ -12556,7 +11944,7 @@
         <v>How to say "毫无惧色" ?</v>
       </c>
     </row>
-    <row r="123" ht="28" spans="1:26">
+    <row r="123" spans="1:26" ht="39.6">
       <c r="A123" s="2">
         <v>4</v>
       </c>
@@ -12622,7 +12010,7 @@
         <v>How to say "我们努力拼搏" ?</v>
       </c>
     </row>
-    <row r="124" ht="47" spans="1:26">
+    <row r="124" spans="1:26" ht="52.8">
       <c r="A124" s="2">
         <v>4</v>
       </c>
@@ -12688,7 +12076,7 @@
         <v>How to say "你有兴趣让我帮你做背部按摩吗" ?</v>
       </c>
     </row>
-    <row r="125" ht="36" spans="1:26">
+    <row r="125" spans="1:26" ht="31.2">
       <c r="A125" s="2">
         <v>4</v>
       </c>
@@ -12754,7 +12142,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" ht="35" spans="1:26">
+    <row r="126" spans="1:26" ht="39.6">
       <c r="A126" s="2">
         <v>4</v>
       </c>
@@ -12820,7 +12208,7 @@
         <v>How to say "他出很多汗" ?</v>
       </c>
     </row>
-    <row r="127" ht="35" spans="1:26">
+    <row r="127" spans="1:26" ht="39.6">
       <c r="A127" s="2">
         <v>4</v>
       </c>
@@ -12886,7 +12274,7 @@
         <v>How to say "不用管细节" ?</v>
       </c>
     </row>
-    <row r="128" ht="35" spans="1:26">
+    <row r="128" spans="1:26" ht="52.8">
       <c r="A128" s="2">
         <v>4</v>
       </c>
@@ -12952,7 +12340,7 @@
         <v>How to say "布什以谎言把美国带进战争" ?</v>
       </c>
     </row>
-    <row r="129" ht="28" spans="1:26">
+    <row r="129" spans="1:26" ht="39.6">
       <c r="A129" s="2">
         <v>4</v>
       </c>
@@ -13018,7 +12406,7 @@
         <v>How to say "真理是重要的" ?</v>
       </c>
     </row>
-    <row r="130" ht="35" spans="1:26">
+    <row r="130" spans="1:26" ht="39.6">
       <c r="A130" s="2">
         <v>4</v>
       </c>
@@ -13084,7 +12472,7 @@
         <v>How to say "我哭着入睡" ?</v>
       </c>
     </row>
-    <row r="131" ht="35" spans="1:26">
+    <row r="131" spans="1:26" ht="52.8">
       <c r="A131" s="2">
         <v>4</v>
       </c>
@@ -13150,7 +12538,7 @@
         <v>How to say "他对蠢人不耐烦" ?</v>
       </c>
     </row>
-    <row r="132" ht="35" spans="1:26">
+    <row r="132" spans="1:26" ht="39.6">
       <c r="A132" s="2">
         <v>4</v>
       </c>
@@ -13216,7 +12604,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" ht="28" spans="1:26">
+    <row r="133" spans="1:26" ht="31.2">
       <c r="A133" s="2">
         <v>4</v>
       </c>
@@ -13282,7 +12670,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" ht="35" spans="1:26">
+    <row r="134" spans="1:26" ht="52.8">
       <c r="A134" s="2">
         <v>4</v>
       </c>
@@ -13348,7 +12736,7 @@
         <v>How to say "臭名远扬" ?</v>
       </c>
     </row>
-    <row r="135" ht="14" spans="2:25">
+    <row r="135" spans="1:26" ht="15.6">
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -13361,7 +12749,7 @@
       <c r="T135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" ht="14" spans="2:25">
+    <row r="136" spans="1:26" ht="15.6">
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -13374,7 +12762,7 @@
       <c r="T136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" ht="14" spans="2:25">
+    <row r="137" spans="1:26" ht="15.6">
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -13387,7 +12775,7 @@
       <c r="T137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" ht="14" spans="2:25">
+    <row r="138" spans="1:26" ht="15.6">
       <c r="B138" s="4"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -13400,7 +12788,7 @@
       <c r="T138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" ht="14" spans="2:25">
+    <row r="139" spans="1:26" ht="15.6">
       <c r="B139" s="4"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -13413,7 +12801,7 @@
       <c r="T139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" ht="14" spans="2:25">
+    <row r="140" spans="1:26" ht="15.6">
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -13426,7 +12814,7 @@
       <c r="T140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" ht="14" spans="2:25">
+    <row r="141" spans="1:26" ht="15.6">
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -13439,7 +12827,7 @@
       <c r="T141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" ht="14" spans="2:25">
+    <row r="142" spans="1:26" ht="15.6">
       <c r="B142" s="4"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -13452,7 +12840,7 @@
       <c r="T142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" ht="14" spans="2:25">
+    <row r="143" spans="1:26" ht="15.6">
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
@@ -13465,7 +12853,7 @@
       <c r="T143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" ht="14" spans="2:25">
+    <row r="144" spans="1:26" ht="15.6">
       <c r="B144" s="4"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
@@ -13478,7 +12866,7 @@
       <c r="T144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" ht="14" spans="2:25">
+    <row r="145" spans="2:25" ht="15.6">
       <c r="B145" s="4"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
@@ -13491,7 +12879,7 @@
       <c r="T145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" ht="14" spans="2:25">
+    <row r="146" spans="2:25" ht="15.6">
       <c r="B146" s="4"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
@@ -13504,7 +12892,7 @@
       <c r="T146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" ht="14" spans="2:25">
+    <row r="147" spans="2:25" ht="15.6">
       <c r="B147" s="4"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
@@ -13517,7 +12905,7 @@
       <c r="T147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" ht="14" spans="2:25">
+    <row r="148" spans="2:25" ht="15.6">
       <c r="B148" s="4"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
@@ -13530,7 +12918,7 @@
       <c r="T148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" ht="14" spans="2:25">
+    <row r="149" spans="2:25" ht="15.6">
       <c r="B149" s="4"/>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
@@ -13543,7 +12931,7 @@
       <c r="T149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" ht="14" spans="2:25">
+    <row r="150" spans="2:25" ht="15.6">
       <c r="B150" s="4"/>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
@@ -13556,7 +12944,7 @@
       <c r="T150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" ht="14" spans="2:25">
+    <row r="151" spans="2:25" ht="15.6">
       <c r="B151" s="4"/>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
@@ -13569,7 +12957,7 @@
       <c r="T151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" ht="14" spans="2:25">
+    <row r="152" spans="2:25" ht="15.6">
       <c r="B152" s="4"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
@@ -13582,7 +12970,7 @@
       <c r="T152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" ht="14" spans="2:25">
+    <row r="153" spans="2:25" ht="15.6">
       <c r="B153" s="4"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
@@ -13595,7 +12983,7 @@
       <c r="T153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" ht="14" spans="2:25">
+    <row r="154" spans="2:25" ht="15.6">
       <c r="B154" s="4"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
@@ -13608,7 +12996,7 @@
       <c r="T154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" ht="14" spans="2:25">
+    <row r="155" spans="2:25" ht="15.6">
       <c r="B155" s="4"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
@@ -13621,7 +13009,7 @@
       <c r="T155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" ht="14" spans="2:25">
+    <row r="156" spans="2:25" ht="15.6">
       <c r="B156" s="4"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
@@ -13634,7 +13022,7 @@
       <c r="T156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" ht="14" spans="2:25">
+    <row r="157" spans="2:25" ht="15.6">
       <c r="B157" s="4"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
@@ -13647,7 +13035,7 @@
       <c r="T157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" ht="14" spans="2:25">
+    <row r="158" spans="2:25" ht="15.6">
       <c r="B158" s="4"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
@@ -13660,7 +13048,7 @@
       <c r="T158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" ht="14" spans="2:25">
+    <row r="159" spans="2:25" ht="15.6">
       <c r="B159" s="4"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
@@ -13673,7 +13061,7 @@
       <c r="T159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" ht="14" spans="2:25">
+    <row r="160" spans="2:25" ht="15.6">
       <c r="B160" s="4"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
@@ -13686,7 +13074,7 @@
       <c r="T160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" ht="14" spans="2:25">
+    <row r="161" spans="2:25" ht="15.6">
       <c r="B161" s="4"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
@@ -13699,7 +13087,7 @@
       <c r="T161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" ht="14" spans="2:25">
+    <row r="162" spans="2:25" ht="15.6">
       <c r="B162" s="4"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
@@ -13712,7 +13100,7 @@
       <c r="T162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" ht="14" spans="2:25">
+    <row r="163" spans="2:25" ht="15.6">
       <c r="B163" s="4"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
@@ -13725,7 +13113,7 @@
       <c r="T163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" ht="14" spans="2:25">
+    <row r="164" spans="2:25" ht="15.6">
       <c r="B164" s="4"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
@@ -13738,7 +13126,7 @@
       <c r="T164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" ht="14" spans="2:25">
+    <row r="165" spans="2:25" ht="15.6">
       <c r="B165" s="4"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
@@ -13751,7 +13139,7 @@
       <c r="T165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" ht="14" spans="2:25">
+    <row r="166" spans="2:25" ht="15.6">
       <c r="B166" s="4"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
@@ -13764,7 +13152,7 @@
       <c r="T166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" ht="14" spans="2:25">
+    <row r="167" spans="2:25" ht="15.6">
       <c r="B167" s="4"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
@@ -13777,7 +13165,7 @@
       <c r="T167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" ht="14" spans="2:25">
+    <row r="168" spans="2:25" ht="15.6">
       <c r="B168" s="4"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
@@ -13790,7 +13178,7 @@
       <c r="T168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" ht="14" spans="2:25">
+    <row r="169" spans="2:25" ht="15.6">
       <c r="B169" s="4"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
@@ -13803,7 +13191,7 @@
       <c r="T169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" ht="14" spans="2:25">
+    <row r="170" spans="2:25" ht="15.6">
       <c r="B170" s="4"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
@@ -13816,7 +13204,7 @@
       <c r="T170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" ht="14" spans="2:25">
+    <row r="171" spans="2:25" ht="15.6">
       <c r="B171" s="4"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
@@ -13829,7 +13217,7 @@
       <c r="T171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" ht="14" spans="2:25">
+    <row r="172" spans="2:25" ht="15.6">
       <c r="B172" s="4"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
@@ -13842,7 +13230,7 @@
       <c r="T172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" ht="14" spans="2:25">
+    <row r="173" spans="2:25" ht="15.6">
       <c r="B173" s="4"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
@@ -13855,7 +13243,7 @@
       <c r="T173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" ht="14" spans="2:25">
+    <row r="174" spans="2:25" ht="15.6">
       <c r="B174" s="4"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
@@ -13868,7 +13256,7 @@
       <c r="T174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" ht="14" spans="2:25">
+    <row r="175" spans="2:25" ht="15.6">
       <c r="B175" s="4"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
@@ -13881,7 +13269,7 @@
       <c r="T175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" ht="14" spans="2:25">
+    <row r="176" spans="2:25" ht="15.6">
       <c r="B176" s="4"/>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
@@ -13894,7 +13282,7 @@
       <c r="T176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" ht="14" spans="2:25">
+    <row r="177" spans="2:25" ht="15.6">
       <c r="B177" s="4"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
@@ -13907,7 +13295,7 @@
       <c r="T177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" ht="14" spans="2:25">
+    <row r="178" spans="2:25" ht="15.6">
       <c r="B178" s="4"/>
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
@@ -13920,7 +13308,7 @@
       <c r="T178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" ht="14" spans="2:25">
+    <row r="179" spans="2:25" ht="15.6">
       <c r="B179" s="4"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
@@ -13933,7 +13321,7 @@
       <c r="T179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" ht="14" spans="2:25">
+    <row r="180" spans="2:25" ht="15.6">
       <c r="B180" s="4"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
@@ -13946,7 +13334,7 @@
       <c r="T180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" ht="14" spans="2:25">
+    <row r="181" spans="2:25" ht="15.6">
       <c r="B181" s="4"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
@@ -13959,7 +13347,7 @@
       <c r="T181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" ht="14" spans="2:25">
+    <row r="182" spans="2:25" ht="15.6">
       <c r="B182" s="4"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
@@ -13972,7 +13360,7 @@
       <c r="T182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" ht="14" spans="2:25">
+    <row r="183" spans="2:25" ht="15.6">
       <c r="B183" s="4"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
@@ -13985,7 +13373,7 @@
       <c r="T183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" ht="14" spans="2:25">
+    <row r="184" spans="2:25" ht="15.6">
       <c r="B184" s="4"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
@@ -13998,7 +13386,7 @@
       <c r="T184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" ht="14" spans="2:25">
+    <row r="185" spans="2:25" ht="15.6">
       <c r="B185" s="4"/>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
@@ -14011,7 +13399,7 @@
       <c r="T185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" ht="14" spans="2:25">
+    <row r="186" spans="2:25" ht="15.6">
       <c r="B186" s="4"/>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
@@ -14024,7 +13412,7 @@
       <c r="T186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" ht="14" spans="2:25">
+    <row r="187" spans="2:25" ht="15.6">
       <c r="B187" s="4"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
@@ -14037,7 +13425,7 @@
       <c r="T187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188" ht="14" spans="2:25">
+    <row r="188" spans="2:25" ht="15.6">
       <c r="B188" s="4"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
@@ -14050,7 +13438,7 @@
       <c r="T188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" ht="14" spans="2:25">
+    <row r="189" spans="2:25" ht="15.6">
       <c r="B189" s="4"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
@@ -14169,7 +13557,6 @@
       <c r="Y204" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/miniproject/template/Lectures/Lecture 4.xlsx
+++ b/miniproject/template/Lectures/Lecture 4.xlsx
@@ -1,37 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S_AGI\Documents\GitHub\AI_teaching_project\miniproject\template\Lectures\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DE8AF7-DCDF-4002-BD53-364670413DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="11600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567">
   <si>
     <t>Unit</t>
   </si>
@@ -57,7 +40,7 @@
     <t>Meaning</t>
   </si>
   <si>
-    <t>Meaning（中文）</t>
+    <t>Translation</t>
   </si>
   <si>
     <t>level_2</t>
@@ -2382,12 +2365,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2425,17 +2414,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -2459,8 +2437,159 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2473,8 +2602,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2512,13 +2827,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2549,10 +3106,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2561,24 +3121,62 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2836,39 +3434,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:Z204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.66071428571429" defaultRowHeight="12.4"/>
   <cols>
-    <col min="1" max="2" width="8.6640625" style="2"/>
-    <col min="3" max="3" width="18.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="43.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.44140625" style="3" customWidth="1"/>
-    <col min="10" max="14" width="8.6640625" style="2"/>
+    <col min="1" max="2" width="8.66071428571429" style="2"/>
+    <col min="3" max="3" width="18.3303571428571" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.6607142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.1071428571429" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.6607142857143" style="4" customWidth="1"/>
+    <col min="7" max="7" width="32.6607142857143" style="3" customWidth="1"/>
+    <col min="8" max="8" width="43.4375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.4375" style="3" customWidth="1"/>
+    <col min="10" max="14" width="8.66071428571429" style="2"/>
     <col min="15" max="15" width="12" style="2" customWidth="1"/>
-    <col min="16" max="20" width="23.33203125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="15.77734375" style="2" customWidth="1"/>
-    <col min="22" max="24" width="23.33203125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="15.77734375" style="2" customWidth="1"/>
-    <col min="26" max="26" width="20.33203125" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="8.6640625" style="2"/>
+    <col min="16" max="20" width="23.3303571428571" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15.7767857142857" style="2" customWidth="1"/>
+    <col min="22" max="24" width="23.3303571428571" style="2" customWidth="1"/>
+    <col min="25" max="25" width="15.7767857142857" style="2" customWidth="1"/>
+    <col min="26" max="26" width="20.3303571428571" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="8.66071428571429" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="26.4">
+    <row r="1" ht="24" spans="1:26">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2932,13 +3530,13 @@
       <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="10" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="6" t="s">
@@ -2948,7 +3546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="39.6">
+    <row r="2" ht="35" spans="1:26">
       <c r="A2" s="2">
         <v>4</v>
       </c>
@@ -3036,7 +3634,7 @@
         <v>How to say "街上有一个男人" ?</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="39.6">
+    <row r="3" ht="35" spans="1:26">
       <c r="A3" s="2">
         <v>4</v>
       </c>
@@ -3124,7 +3722,7 @@
         <v>How to say "普通人" ?</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="52.8">
+    <row r="4" ht="35" spans="1:26">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -3212,7 +3810,7 @@
         <v>How to say "带一个小孩的女人" ?</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="52.8">
+    <row r="5" ht="35" spans="1:26">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3300,7 +3898,7 @@
         <v>How to say "怀孕的女人" ?</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="39.6">
+    <row r="6" ht="35" spans="1:26">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -3388,7 +3986,7 @@
         <v>How to say "普通人" ?</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="52.8">
+    <row r="7" ht="47" spans="1:26">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -3478,7 +4076,7 @@
         <v>How to say "他的体重猛增到200公斤" ?</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="52.8">
+    <row r="8" ht="35" spans="1:26">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -3568,7 +4166,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="39.6">
+    <row r="9" ht="36" spans="1:26">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -3658,7 +4256,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="52.8">
+    <row r="10" ht="47" spans="1:26">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -3748,7 +4346,7 @@
         <v>How to say "他手里温柔地捧着一杯饮料" ?</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="31.5" customHeight="1">
+    <row r="11" ht="31.5" customHeight="1" spans="1:26">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -3838,7 +4436,7 @@
         <v>How to say "我们热烈讨论并且敲定了结果" ?</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="66">
+    <row r="12" ht="47" spans="1:26">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -3928,7 +4526,7 @@
         <v>How to say "他们为权力和地位斗争" ?</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="26.4">
+    <row r="13" ht="24" spans="1:26">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -4018,7 +4616,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="66">
+    <row r="14" ht="47" spans="1:26">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -4108,7 +4706,7 @@
         <v>How to say "美国和中国掩盖他们的意见不合" ?</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="52.8">
+    <row r="15" ht="47" spans="1:26">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -4198,7 +4796,7 @@
         <v>How to say "他被他父母送出国" ?</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="52.8">
+    <row r="16" ht="47" spans="1:26">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -4288,7 +4886,7 @@
         <v>How to say "他在他哥哥面前显得黯然失色" ?</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="39.6">
+    <row r="17" ht="24" spans="1:26">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -4378,7 +4976,7 @@
         <v>How to say "日食" ?</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="52.8">
+    <row r="18" ht="35" spans="1:26">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -4468,7 +5066,7 @@
         <v>How to say "球很快很准" ?</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="52.8">
+    <row r="19" ht="35" spans="1:26">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -4558,7 +5156,7 @@
         <v>How to say "他对数据进行了仔细搜索" ?</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="31.2">
+    <row r="20" ht="29" spans="1:26">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -4648,7 +5246,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.6">
+    <row r="21" ht="18" spans="1:26">
       <c r="A21" s="2">
         <v>4</v>
       </c>
@@ -4738,7 +5336,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="52.8">
+    <row r="22" ht="35" spans="1:26">
       <c r="A22" s="2">
         <v>4</v>
       </c>
@@ -4828,7 +5426,7 @@
         <v>How to say "她悠闲地走进房间" ?</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="79.2">
+    <row r="23" ht="58" spans="1:26">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -4918,7 +5516,7 @@
         <v>How to say "大流行的影响波及整个经济" ?</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="66">
+    <row r="24" ht="47" spans="1:26">
       <c r="A24" s="2">
         <v>4</v>
       </c>
@@ -5008,7 +5606,7 @@
         <v>How to say "星期天的黎明明媚而美丽" ?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="39.6">
+    <row r="25" ht="35" spans="1:26">
       <c r="A25" s="2">
         <v>4</v>
       </c>
@@ -5098,7 +5696,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="31.2">
+    <row r="26" ht="28" spans="1:26">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -5188,7 +5786,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15.6">
+    <row r="27" ht="18" spans="1:26">
       <c r="A27" s="2">
         <v>4</v>
       </c>
@@ -5278,7 +5876,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="52.8">
+    <row r="28" ht="35" spans="1:26">
       <c r="A28" s="2">
         <v>4</v>
       </c>
@@ -5368,7 +5966,7 @@
         <v>How to say "股市由于病毒大跌" ?</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="39.6">
+    <row r="29" ht="24" spans="1:26">
       <c r="A29" s="2">
         <v>4</v>
       </c>
@@ -5458,7 +6056,7 @@
         <v>How to say "整天躺在沙发上的人" ?</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="39.6">
+    <row r="30" ht="24" spans="1:26">
       <c r="A30" s="2">
         <v>4</v>
       </c>
@@ -5548,7 +6146,7 @@
         <v>How to say "整天玩电脑的人" ?</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="39.6">
+    <row r="31" ht="36" spans="1:26">
       <c r="A31" s="2">
         <v>4</v>
       </c>
@@ -5638,7 +6236,7 @@
         <v>How to say "不要把工作推迟到星期一，现在就完成" ?</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="26.4">
+    <row r="32" ht="24" spans="1:26">
       <c r="A32" s="2">
         <v>4</v>
       </c>
@@ -5728,7 +6326,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="39.6">
+    <row r="33" ht="35" spans="1:26">
       <c r="A33" s="2">
         <v>4</v>
       </c>
@@ -5818,7 +6416,7 @@
         <v>How to say "她打扮得漂漂亮亮的" ?</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="26.4">
+    <row r="34" ht="24" spans="1:26">
       <c r="A34" s="2">
         <v>4</v>
       </c>
@@ -5908,7 +6506,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="52.8">
+    <row r="35" ht="36" spans="1:26">
       <c r="A35" s="2">
         <v>4</v>
       </c>
@@ -5998,7 +6596,7 @@
         <v>How to say "他像松鼠一样屯粮，未雨绸缪" ?</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="31.2">
+    <row r="36" ht="29" spans="1:26">
       <c r="A36" s="2">
         <v>4</v>
       </c>
@@ -6088,7 +6686,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="15.6">
+    <row r="37" ht="15" spans="1:26">
       <c r="A37" s="2">
         <v>4</v>
       </c>
@@ -6178,7 +6776,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="52.8">
+    <row r="38" ht="35" spans="1:26">
       <c r="A38" s="2">
         <v>4</v>
       </c>
@@ -6201,7 +6799,7 @@
       <c r="H38" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="I38" s="7" t="s">
         <v>177</v>
       </c>
       <c r="J38" s="2">
@@ -6268,7 +6866,7 @@
         <v>How to say "他猛烈地不停打击他的对手 " ?</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="52.8">
+    <row r="39" ht="35" spans="1:26">
       <c r="A39" s="2">
         <v>4</v>
       </c>
@@ -6358,7 +6956,7 @@
         <v>How to say "椅子表面上覆盖了一层灰" ?</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="66">
+    <row r="40" ht="47" spans="1:26">
       <c r="A40" s="2">
         <v>4</v>
       </c>
@@ -6448,7 +7046,7 @@
         <v>How to say "他试图为他的项目争取支持" ?</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="26.4">
+    <row r="41" ht="24" spans="1:26">
       <c r="A41" s="2">
         <v>4</v>
       </c>
@@ -6538,7 +7136,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="39.6">
+    <row r="42" ht="35" spans="1:26">
       <c r="A42" s="2">
         <v>4</v>
       </c>
@@ -6628,7 +7226,7 @@
         <v>How to say "难以置信" ?</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="52.8">
+    <row r="43" ht="35" spans="1:26">
       <c r="A43" s="2">
         <v>4</v>
       </c>
@@ -6718,7 +7316,7 @@
         <v>How to say "他回答得很好" ?</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="52.8">
+    <row r="44" ht="35" spans="1:26">
       <c r="A44" s="2">
         <v>4</v>
       </c>
@@ -6808,7 +7406,7 @@
         <v>How to say "房价像火箭一样猛涨" ?</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="66">
+    <row r="45" ht="47" spans="1:26">
       <c r="A45" s="2">
         <v>4</v>
       </c>
@@ -6898,7 +7496,7 @@
         <v>How to say "操场上覆盖着雪" ?</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="52.8">
+    <row r="46" ht="35" spans="1:26">
       <c r="A46" s="2">
         <v>4</v>
       </c>
@@ -6988,7 +7586,7 @@
         <v>How to say "这个计划被搁置了" ?</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="52.8">
+    <row r="47" ht="35" spans="1:26">
       <c r="A47" s="2">
         <v>4</v>
       </c>
@@ -7078,7 +7676,7 @@
         <v>How to say "他把差额塞进了自己的腰包" ?</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="39.6">
+    <row r="48" ht="24" spans="1:26">
       <c r="A48" s="2">
         <v>4</v>
       </c>
@@ -7144,7 +7742,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="15.6">
+    <row r="49" ht="15" spans="1:26">
       <c r="A49" s="2">
         <v>4</v>
       </c>
@@ -7210,7 +7808,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="52.8">
+    <row r="50" ht="36" spans="1:26">
       <c r="A50" s="2">
         <v>4</v>
       </c>
@@ -7276,7 +7874,7 @@
         <v>How to say "英国将离开欧盟，没有特殊情况和借口" ?</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="52.8">
+    <row r="51" ht="47" spans="1:26">
       <c r="A51" s="2">
         <v>4</v>
       </c>
@@ -7342,7 +7940,7 @@
         <v>How to say "他们的关系有了嫌隙" ?</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="39.6">
+    <row r="52" ht="35" spans="1:26">
       <c r="A52" s="2">
         <v>4</v>
       </c>
@@ -7408,7 +8006,7 @@
         <v>How to say "完全损毁" ?</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="15.6">
+    <row r="53" ht="15" spans="1:26">
       <c r="A53" s="2">
         <v>4</v>
       </c>
@@ -7474,7 +8072,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:26" s="1" customFormat="1" ht="31.2">
+    <row r="54" s="1" customFormat="1" ht="28" spans="1:26">
       <c r="A54" s="2">
         <v>4</v>
       </c>
@@ -7546,7 +8144,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="15.6">
+    <row r="55" ht="15" spans="1:26">
       <c r="A55" s="2">
         <v>4</v>
       </c>
@@ -7612,7 +8210,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="39.6">
+    <row r="56" ht="35" spans="1:26">
       <c r="A56" s="2">
         <v>4</v>
       </c>
@@ -7678,7 +8276,7 @@
         <v>How to say "这个是如此过时" ?</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="52.8">
+    <row r="57" ht="47" spans="1:26">
       <c r="A57" s="2">
         <v>4</v>
       </c>
@@ -7744,7 +8342,7 @@
         <v>How to say "别向我推销这个想法，那太过时了" ?</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="52.8">
+    <row r="58" ht="47" spans="1:26">
       <c r="A58" s="2">
         <v>4</v>
       </c>
@@ -7810,7 +8408,7 @@
         <v>How to say "中国和法国的友谊赛" ?</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="39.6">
+    <row r="59" ht="24" spans="1:26">
       <c r="A59" s="2">
         <v>4</v>
       </c>
@@ -7876,7 +8474,7 @@
         <v>How to say "我本人" ?</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="31.2">
+    <row r="60" ht="29" spans="1:26">
       <c r="A60" s="2">
         <v>4</v>
       </c>
@@ -7942,7 +8540,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="66">
+    <row r="61" ht="47" spans="1:26">
       <c r="A61" s="2">
         <v>4</v>
       </c>
@@ -8008,7 +8606,7 @@
         <v>How to say "他的表演使观众大为惊叹" ?</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="26.4">
+    <row r="62" ht="24" spans="1:26">
       <c r="A62" s="2">
         <v>4</v>
       </c>
@@ -8074,7 +8672,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="52.8">
+    <row r="63" ht="35" spans="1:26">
       <c r="A63" s="2">
         <v>4</v>
       </c>
@@ -8138,7 +8736,7 @@
         <v>How to say "扮猪吃老虎" ?</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="39.6">
+    <row r="64" ht="35" spans="1:26">
       <c r="A64" s="2">
         <v>4</v>
       </c>
@@ -8202,7 +8800,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="31.2">
+    <row r="65" ht="15" spans="1:26">
       <c r="A65" s="2">
         <v>4</v>
       </c>
@@ -8266,7 +8864,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="39.6">
+    <row r="66" ht="35" spans="1:26">
       <c r="A66" s="2">
         <v>4</v>
       </c>
@@ -8330,28 +8928,28 @@
         <v>How to say "我看起来很年轻" ?</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="66">
+    <row r="67" ht="47" spans="1:26">
       <c r="A67" s="2">
         <v>4</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
       <c r="F67" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="G67" s="12" t="s">
+      <c r="G67" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="H67" s="12" t="s">
+      <c r="H67" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="I67" s="14" t="s">
+      <c r="I67" s="13" t="s">
         <v>293</v>
       </c>
       <c r="J67" s="2">
@@ -8394,7 +8992,7 @@
         <v>How to say "他不努力去活，就等于等死" ?</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="52.8">
+    <row r="68" ht="47" spans="1:26">
       <c r="A68" s="2">
         <v>4</v>
       </c>
@@ -8458,7 +9056,7 @@
         <v>How to say "我是自己无知的受害者" ?</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="31.2">
+    <row r="69" ht="28" spans="1:26">
       <c r="A69" s="2">
         <v>4</v>
       </c>
@@ -8522,7 +9120,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="52.8">
+    <row r="70" ht="35" spans="1:26">
       <c r="A70" s="2">
         <v>4</v>
       </c>
@@ -8586,7 +9184,7 @@
         <v>How to say "无法被忽视的沉默" ?</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="52.8">
+    <row r="71" ht="35" spans="1:26">
       <c r="A71" s="2">
         <v>4</v>
       </c>
@@ -8650,7 +9248,7 @@
         <v>How to say "显而易见" ?</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="39.6">
+    <row r="72" ht="24" spans="1:26">
       <c r="A72" s="2">
         <v>4</v>
       </c>
@@ -8714,7 +9312,7 @@
         <v>How to say "花哨的颜色" ?</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="39.6">
+    <row r="73" ht="24" spans="1:26">
       <c r="A73" s="2">
         <v>4</v>
       </c>
@@ -8778,7 +9376,7 @@
         <v>How to say "花哨的衬衫" ?</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="39.6">
+    <row r="74" ht="28" spans="1:26">
       <c r="A74" s="2">
         <v>4</v>
       </c>
@@ -8842,7 +9440,7 @@
         <v>How to say "白噪音" ?</v>
       </c>
     </row>
-    <row r="75" spans="1:26" ht="39.6">
+    <row r="75" ht="28" spans="1:26">
       <c r="A75" s="2">
         <v>4</v>
       </c>
@@ -8906,7 +9504,7 @@
         <v>How to say "华丽的散文" ?</v>
       </c>
     </row>
-    <row r="76" spans="1:26" ht="62.4">
+    <row r="76" ht="56" spans="1:26">
       <c r="A76" s="2">
         <v>4</v>
       </c>
@@ -8970,7 +9568,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="15.6">
+    <row r="77" ht="15" spans="1:26">
       <c r="A77" s="2">
         <v>4</v>
       </c>
@@ -9034,7 +9632,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="39.6">
+    <row r="78" ht="24" spans="1:26">
       <c r="A78" s="2">
         <v>4</v>
       </c>
@@ -9098,7 +9696,7 @@
         <v>How to say "红肿的伤口" ?</v>
       </c>
     </row>
-    <row r="79" spans="1:26" ht="39.6">
+    <row r="79" ht="35" spans="1:26">
       <c r="A79" s="2">
         <v>4</v>
       </c>
@@ -9162,7 +9760,7 @@
         <v>How to say "他的文字简洁利落" ?</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="39.6">
+    <row r="80" ht="35" spans="1:26">
       <c r="A80" s="2">
         <v>4</v>
       </c>
@@ -9226,7 +9824,7 @@
         <v>How to say "在破晓时" ?</v>
       </c>
     </row>
-    <row r="81" spans="1:26" ht="26.4">
+    <row r="81" ht="24" spans="1:26">
       <c r="A81" s="2">
         <v>4</v>
       </c>
@@ -9290,7 +9888,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:26" ht="31.2">
+    <row r="82" ht="28" spans="1:26">
       <c r="A82" s="2">
         <v>4</v>
       </c>
@@ -9354,7 +9952,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:26" ht="31.2">
+    <row r="83" ht="28" spans="1:26">
       <c r="A83" s="2">
         <v>4</v>
       </c>
@@ -9418,7 +10016,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:26" ht="52.8">
+    <row r="84" ht="36" spans="1:26">
       <c r="A84" s="2">
         <v>4</v>
       </c>
@@ -9482,7 +10080,7 @@
         <v>How to say "如果网球触线，就算99%出局，它还是入球" ?</v>
       </c>
     </row>
-    <row r="85" spans="1:26" ht="52.8">
+    <row r="85" ht="35" spans="1:26">
       <c r="A85" s="2">
         <v>4</v>
       </c>
@@ -9546,7 +10144,7 @@
         <v>How to say "Boris故意把头发弄得凌乱" ?</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="66">
+    <row r="86" ht="47" spans="1:26">
       <c r="A86" s="2">
         <v>4</v>
       </c>
@@ -9610,7 +10208,7 @@
         <v>How to say "我高尔夫打得时好时坏" ?</v>
       </c>
     </row>
-    <row r="87" spans="1:26" ht="52.8">
+    <row r="87" ht="36" spans="1:26">
       <c r="A87" s="2">
         <v>4</v>
       </c>
@@ -9674,7 +10272,7 @@
         <v>How to say "只说一半真话那说的全部都是假话" ?</v>
       </c>
     </row>
-    <row r="88" spans="1:26" ht="31.2">
+    <row r="88" ht="29" spans="1:26">
       <c r="A88" s="2">
         <v>4</v>
       </c>
@@ -9738,7 +10336,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:26" ht="52.8">
+    <row r="89" ht="35" spans="1:26">
       <c r="A89" s="2">
         <v>4</v>
       </c>
@@ -9802,7 +10400,7 @@
         <v>How to say "身在心不在" ?</v>
       </c>
     </row>
-    <row r="90" spans="1:26" ht="26.4">
+    <row r="90" ht="24" spans="1:26">
       <c r="A90" s="2">
         <v>4</v>
       </c>
@@ -9866,7 +10464,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:26" ht="52.8">
+    <row r="91" ht="47" spans="1:26">
       <c r="A91" s="2">
         <v>4</v>
       </c>
@@ -9930,7 +10528,7 @@
         <v>How to say "它地处偏僻" ?</v>
       </c>
     </row>
-    <row r="92" spans="1:26" ht="15.6">
+    <row r="92" ht="15" spans="1:26">
       <c r="A92" s="2">
         <v>4</v>
       </c>
@@ -9994,7 +10592,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:26" ht="15.6">
+    <row r="93" ht="15" spans="1:26">
       <c r="A93" s="2">
         <v>4</v>
       </c>
@@ -10058,7 +10656,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:26" ht="66">
+    <row r="94" ht="53" spans="1:26">
       <c r="A94" s="2">
         <v>4</v>
       </c>
@@ -10079,7 +10677,7 @@
       <c r="H94" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="I94" s="10" t="s">
+      <c r="I94" s="7" t="s">
         <v>401</v>
       </c>
       <c r="J94" s="2">
@@ -10122,7 +10720,7 @@
         <v>How to say "尝试一些橙汁。 （阳光灿烂的加利福尼亚州以生产橘子而闻名）" ?</v>
       </c>
     </row>
-    <row r="95" spans="1:26" ht="39.6">
+    <row r="95" ht="35" spans="1:26">
       <c r="A95" s="2">
         <v>4</v>
       </c>
@@ -10186,7 +10784,7 @@
         <v>How to say "品尝那种感觉" ?</v>
       </c>
     </row>
-    <row r="96" spans="1:26" ht="66">
+    <row r="96" ht="47" spans="1:26">
       <c r="A96" s="2">
         <v>4</v>
       </c>
@@ -10250,7 +10848,7 @@
         <v>How to say "友谊就像是一起打桌球的声音" ?</v>
       </c>
     </row>
-    <row r="97" spans="1:26" ht="52.8">
+    <row r="97" ht="47" spans="1:26">
       <c r="A97" s="2">
         <v>4</v>
       </c>
@@ -10314,7 +10912,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:26" ht="79.2">
+    <row r="98" ht="58" spans="1:26">
       <c r="A98" s="2">
         <v>4</v>
       </c>
@@ -10378,7 +10976,7 @@
         <v>How to say "只靠人数众多取胜" ?</v>
       </c>
     </row>
-    <row r="99" spans="1:26" ht="52.8">
+    <row r="99" ht="35" spans="1:26">
       <c r="A99" s="2">
         <v>4</v>
       </c>
@@ -10442,7 +11040,7 @@
         <v>How to say "可以看到无尽头" ?</v>
       </c>
     </row>
-    <row r="100" spans="1:26" ht="52.8">
+    <row r="100" ht="35" spans="1:26">
       <c r="A100" s="2">
         <v>4</v>
       </c>
@@ -10506,7 +11104,7 @@
         <v>How to say "她的香水有什么味道" ?</v>
       </c>
     </row>
-    <row r="101" spans="1:26" ht="52.8">
+    <row r="101" ht="36" spans="1:26">
       <c r="A101" s="2">
         <v>4</v>
       </c>
@@ -10570,7 +11168,7 @@
         <v>How to say "很久之前（可以用来代指年龄）" ?</v>
       </c>
     </row>
-    <row r="102" spans="1:26" ht="52.8">
+    <row r="102" ht="35" spans="1:26">
       <c r="A102" s="2">
         <v>4</v>
       </c>
@@ -10634,7 +11232,7 @@
         <v>How to say "他讲话非常快" ?</v>
       </c>
     </row>
-    <row r="103" spans="1:26" ht="79.2">
+    <row r="103" ht="58" spans="1:26">
       <c r="A103" s="2">
         <v>4</v>
       </c>
@@ -10698,7 +11296,7 @@
         <v>How to say "我青年时代的中产阶级美国与现在完全不同" ?</v>
       </c>
     </row>
-    <row r="104" spans="1:26" ht="31.2">
+    <row r="104" ht="15" spans="1:26">
       <c r="A104" s="2">
         <v>4</v>
       </c>
@@ -10762,7 +11360,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:26" ht="26.4">
+    <row r="105" ht="24" spans="1:26">
       <c r="A105" s="2">
         <v>4</v>
       </c>
@@ -10826,7 +11424,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:26" ht="66">
+    <row r="106" ht="47" spans="1:26">
       <c r="A106" s="2">
         <v>4</v>
       </c>
@@ -10890,7 +11488,7 @@
         <v>How to say "有430个学生就有430种理由不关闭学校" ?</v>
       </c>
     </row>
-    <row r="107" spans="1:26" ht="52.8">
+    <row r="107" ht="35" spans="1:26">
       <c r="A107" s="2">
         <v>4</v>
       </c>
@@ -10900,8 +11498,8 @@
       <c r="C107" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
       <c r="F107" s="2" t="s">
         <v>452</v>
       </c>
@@ -10954,7 +11552,7 @@
         <v>How to say "死前把秘密说出来" ?</v>
       </c>
     </row>
-    <row r="108" spans="1:26" ht="39.6">
+    <row r="108" ht="35" spans="1:26">
       <c r="A108" s="2">
         <v>4</v>
       </c>
@@ -11020,7 +11618,7 @@
         <v>How to say "凭良心投票" ?</v>
       </c>
     </row>
-    <row r="109" spans="1:26" ht="31.2">
+    <row r="109" ht="28" spans="1:26">
       <c r="A109" s="2">
         <v>4</v>
       </c>
@@ -11086,7 +11684,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:26" ht="31.2">
+    <row r="110" ht="28" spans="1:26">
       <c r="A110" s="2">
         <v>4</v>
       </c>
@@ -11152,7 +11750,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:26" ht="31.2">
+    <row r="111" ht="28" spans="1:26">
       <c r="A111" s="2">
         <v>4</v>
       </c>
@@ -11218,7 +11816,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:26" ht="39.6">
+    <row r="112" ht="35" spans="1:26">
       <c r="A112" s="2">
         <v>4</v>
       </c>
@@ -11284,7 +11882,7 @@
         <v>How to say "悲剧即将来临" ?</v>
       </c>
     </row>
-    <row r="113" spans="1:26" ht="39.6">
+    <row r="113" ht="35" spans="1:26">
       <c r="A113" s="2">
         <v>4</v>
       </c>
@@ -11350,7 +11948,7 @@
         <v>How to say "你听懂了吗" ?</v>
       </c>
     </row>
-    <row r="114" spans="1:26" ht="39.6">
+    <row r="114" ht="35" spans="1:26">
       <c r="A114" s="2">
         <v>4</v>
       </c>
@@ -11373,7 +11971,7 @@
       <c r="H114" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="I114" s="15" t="s">
+      <c r="I114" s="14" t="s">
         <v>486</v>
       </c>
       <c r="J114" s="2">
@@ -11416,7 +12014,7 @@
         <v>How to say "她活在谎言里" ?</v>
       </c>
     </row>
-    <row r="115" spans="1:26" ht="52.8">
+    <row r="115" ht="47" spans="1:26">
       <c r="A115" s="2">
         <v>4</v>
       </c>
@@ -11482,7 +12080,7 @@
         <v>How to say "他不在演戏，他在成为那个角色" ?</v>
       </c>
     </row>
-    <row r="116" spans="1:26" ht="31.2">
+    <row r="116" ht="28" spans="1:26">
       <c r="A116" s="2">
         <v>4</v>
       </c>
@@ -11548,7 +12146,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:26" ht="39.6">
+    <row r="117" ht="35" spans="1:26">
       <c r="A117" s="2">
         <v>4</v>
       </c>
@@ -11614,7 +12212,7 @@
         <v>How to say "他情绪变坏" ?</v>
       </c>
     </row>
-    <row r="118" spans="1:26" ht="31.2">
+    <row r="118" ht="28" spans="1:26">
       <c r="A118" s="2">
         <v>4</v>
       </c>
@@ -11680,7 +12278,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:26" ht="39.6">
+    <row r="119" ht="28" spans="1:26">
       <c r="A119" s="2">
         <v>4</v>
       </c>
@@ -11746,7 +12344,7 @@
         <v>How to say "我哪知道" ?</v>
       </c>
     </row>
-    <row r="120" spans="1:26" ht="31.2">
+    <row r="120" ht="28" spans="1:26">
       <c r="A120" s="2">
         <v>4</v>
       </c>
@@ -11812,7 +12410,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:26" ht="39.6">
+    <row r="121" ht="35" spans="1:26">
       <c r="A121" s="2">
         <v>4</v>
       </c>
@@ -11878,7 +12476,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:26" ht="39.6">
+    <row r="122" ht="35" spans="1:26">
       <c r="A122" s="2">
         <v>4</v>
       </c>
@@ -11944,7 +12542,7 @@
         <v>How to say "毫无惧色" ?</v>
       </c>
     </row>
-    <row r="123" spans="1:26" ht="39.6">
+    <row r="123" ht="28" spans="1:26">
       <c r="A123" s="2">
         <v>4</v>
       </c>
@@ -12010,7 +12608,7 @@
         <v>How to say "我们努力拼搏" ?</v>
       </c>
     </row>
-    <row r="124" spans="1:26" ht="52.8">
+    <row r="124" ht="47" spans="1:26">
       <c r="A124" s="2">
         <v>4</v>
       </c>
@@ -12076,7 +12674,7 @@
         <v>How to say "你有兴趣让我帮你做背部按摩吗" ?</v>
       </c>
     </row>
-    <row r="125" spans="1:26" ht="31.2">
+    <row r="125" ht="36" spans="1:26">
       <c r="A125" s="2">
         <v>4</v>
       </c>
@@ -12142,7 +12740,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:26" ht="39.6">
+    <row r="126" ht="35" spans="1:26">
       <c r="A126" s="2">
         <v>4</v>
       </c>
@@ -12208,7 +12806,7 @@
         <v>How to say "他出很多汗" ?</v>
       </c>
     </row>
-    <row r="127" spans="1:26" ht="39.6">
+    <row r="127" ht="35" spans="1:26">
       <c r="A127" s="2">
         <v>4</v>
       </c>
@@ -12274,7 +12872,7 @@
         <v>How to say "不用管细节" ?</v>
       </c>
     </row>
-    <row r="128" spans="1:26" ht="52.8">
+    <row r="128" ht="35" spans="1:26">
       <c r="A128" s="2">
         <v>4</v>
       </c>
@@ -12340,7 +12938,7 @@
         <v>How to say "布什以谎言把美国带进战争" ?</v>
       </c>
     </row>
-    <row r="129" spans="1:26" ht="39.6">
+    <row r="129" ht="28" spans="1:26">
       <c r="A129" s="2">
         <v>4</v>
       </c>
@@ -12406,7 +13004,7 @@
         <v>How to say "真理是重要的" ?</v>
       </c>
     </row>
-    <row r="130" spans="1:26" ht="39.6">
+    <row r="130" ht="35" spans="1:26">
       <c r="A130" s="2">
         <v>4</v>
       </c>
@@ -12472,7 +13070,7 @@
         <v>How to say "我哭着入睡" ?</v>
       </c>
     </row>
-    <row r="131" spans="1:26" ht="52.8">
+    <row r="131" ht="35" spans="1:26">
       <c r="A131" s="2">
         <v>4</v>
       </c>
@@ -12538,7 +13136,7 @@
         <v>How to say "他对蠢人不耐烦" ?</v>
       </c>
     </row>
-    <row r="132" spans="1:26" ht="39.6">
+    <row r="132" ht="35" spans="1:26">
       <c r="A132" s="2">
         <v>4</v>
       </c>
@@ -12604,7 +13202,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:26" ht="31.2">
+    <row r="133" ht="28" spans="1:26">
       <c r="A133" s="2">
         <v>4</v>
       </c>
@@ -12670,7 +13268,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:26" ht="52.8">
+    <row r="134" ht="35" spans="1:26">
       <c r="A134" s="2">
         <v>4</v>
       </c>
@@ -12736,7 +13334,7 @@
         <v>How to say "臭名远扬" ?</v>
       </c>
     </row>
-    <row r="135" spans="1:26" ht="15.6">
+    <row r="135" ht="14" spans="2:25">
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -12749,7 +13347,7 @@
       <c r="T135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="15.6">
+    <row r="136" ht="14" spans="2:25">
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -12762,7 +13360,7 @@
       <c r="T136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:26" ht="15.6">
+    <row r="137" ht="14" spans="2:25">
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -12775,7 +13373,7 @@
       <c r="T137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="15.6">
+    <row r="138" ht="14" spans="2:25">
       <c r="B138" s="4"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -12788,7 +13386,7 @@
       <c r="T138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="15.6">
+    <row r="139" ht="14" spans="2:25">
       <c r="B139" s="4"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -12801,7 +13399,7 @@
       <c r="T139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="15.6">
+    <row r="140" ht="14" spans="2:25">
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -12814,7 +13412,7 @@
       <c r="T140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="15.6">
+    <row r="141" ht="14" spans="2:25">
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -12827,7 +13425,7 @@
       <c r="T141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="15.6">
+    <row r="142" ht="14" spans="2:25">
       <c r="B142" s="4"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -12840,7 +13438,7 @@
       <c r="T142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="15.6">
+    <row r="143" ht="14" spans="2:25">
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
@@ -12853,7 +13451,7 @@
       <c r="T143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="15.6">
+    <row r="144" ht="14" spans="2:25">
       <c r="B144" s="4"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
@@ -12866,7 +13464,7 @@
       <c r="T144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="2:25" ht="15.6">
+    <row r="145" ht="14" spans="2:25">
       <c r="B145" s="4"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
@@ -12879,7 +13477,7 @@
       <c r="T145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="2:25" ht="15.6">
+    <row r="146" ht="14" spans="2:25">
       <c r="B146" s="4"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
@@ -12892,7 +13490,7 @@
       <c r="T146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="2:25" ht="15.6">
+    <row r="147" ht="14" spans="2:25">
       <c r="B147" s="4"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
@@ -12905,7 +13503,7 @@
       <c r="T147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="2:25" ht="15.6">
+    <row r="148" ht="14" spans="2:25">
       <c r="B148" s="4"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
@@ -12918,7 +13516,7 @@
       <c r="T148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="2:25" ht="15.6">
+    <row r="149" ht="14" spans="2:25">
       <c r="B149" s="4"/>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
@@ -12931,7 +13529,7 @@
       <c r="T149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="2:25" ht="15.6">
+    <row r="150" ht="14" spans="2:25">
       <c r="B150" s="4"/>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
@@ -12944,7 +13542,7 @@
       <c r="T150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="2:25" ht="15.6">
+    <row r="151" ht="14" spans="2:25">
       <c r="B151" s="4"/>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
@@ -12957,7 +13555,7 @@
       <c r="T151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="2:25" ht="15.6">
+    <row r="152" ht="14" spans="2:25">
       <c r="B152" s="4"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
@@ -12970,7 +13568,7 @@
       <c r="T152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="2:25" ht="15.6">
+    <row r="153" ht="14" spans="2:25">
       <c r="B153" s="4"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
@@ -12983,7 +13581,7 @@
       <c r="T153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="2:25" ht="15.6">
+    <row r="154" ht="14" spans="2:25">
       <c r="B154" s="4"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
@@ -12996,7 +13594,7 @@
       <c r="T154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="2:25" ht="15.6">
+    <row r="155" ht="14" spans="2:25">
       <c r="B155" s="4"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
@@ -13009,7 +13607,7 @@
       <c r="T155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="2:25" ht="15.6">
+    <row r="156" ht="14" spans="2:25">
       <c r="B156" s="4"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
@@ -13022,7 +13620,7 @@
       <c r="T156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="2:25" ht="15.6">
+    <row r="157" ht="14" spans="2:25">
       <c r="B157" s="4"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
@@ -13035,7 +13633,7 @@
       <c r="T157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="2:25" ht="15.6">
+    <row r="158" ht="14" spans="2:25">
       <c r="B158" s="4"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
@@ -13048,7 +13646,7 @@
       <c r="T158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="2:25" ht="15.6">
+    <row r="159" ht="14" spans="2:25">
       <c r="B159" s="4"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
@@ -13061,7 +13659,7 @@
       <c r="T159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="2:25" ht="15.6">
+    <row r="160" ht="14" spans="2:25">
       <c r="B160" s="4"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
@@ -13074,7 +13672,7 @@
       <c r="T160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="2:25" ht="15.6">
+    <row r="161" ht="14" spans="2:25">
       <c r="B161" s="4"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
@@ -13087,7 +13685,7 @@
       <c r="T161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="2:25" ht="15.6">
+    <row r="162" ht="14" spans="2:25">
       <c r="B162" s="4"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
@@ -13100,7 +13698,7 @@
       <c r="T162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="2:25" ht="15.6">
+    <row r="163" ht="14" spans="2:25">
       <c r="B163" s="4"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
@@ -13113,7 +13711,7 @@
       <c r="T163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="2:25" ht="15.6">
+    <row r="164" ht="14" spans="2:25">
       <c r="B164" s="4"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
@@ -13126,7 +13724,7 @@
       <c r="T164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="2:25" ht="15.6">
+    <row r="165" ht="14" spans="2:25">
       <c r="B165" s="4"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
@@ -13139,7 +13737,7 @@
       <c r="T165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="2:25" ht="15.6">
+    <row r="166" ht="14" spans="2:25">
       <c r="B166" s="4"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
@@ -13152,7 +13750,7 @@
       <c r="T166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="2:25" ht="15.6">
+    <row r="167" ht="14" spans="2:25">
       <c r="B167" s="4"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
@@ -13165,7 +13763,7 @@
       <c r="T167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="2:25" ht="15.6">
+    <row r="168" ht="14" spans="2:25">
       <c r="B168" s="4"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
@@ -13178,7 +13776,7 @@
       <c r="T168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="2:25" ht="15.6">
+    <row r="169" ht="14" spans="2:25">
       <c r="B169" s="4"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
@@ -13191,7 +13789,7 @@
       <c r="T169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="2:25" ht="15.6">
+    <row r="170" ht="14" spans="2:25">
       <c r="B170" s="4"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
@@ -13204,7 +13802,7 @@
       <c r="T170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="2:25" ht="15.6">
+    <row r="171" ht="14" spans="2:25">
       <c r="B171" s="4"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
@@ -13217,7 +13815,7 @@
       <c r="T171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="2:25" ht="15.6">
+    <row r="172" ht="14" spans="2:25">
       <c r="B172" s="4"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
@@ -13230,7 +13828,7 @@
       <c r="T172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="2:25" ht="15.6">
+    <row r="173" ht="14" spans="2:25">
       <c r="B173" s="4"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
@@ -13243,7 +13841,7 @@
       <c r="T173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="2:25" ht="15.6">
+    <row r="174" ht="14" spans="2:25">
       <c r="B174" s="4"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
@@ -13256,7 +13854,7 @@
       <c r="T174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="2:25" ht="15.6">
+    <row r="175" ht="14" spans="2:25">
       <c r="B175" s="4"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
@@ -13269,7 +13867,7 @@
       <c r="T175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="2:25" ht="15.6">
+    <row r="176" ht="14" spans="2:25">
       <c r="B176" s="4"/>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
@@ -13282,7 +13880,7 @@
       <c r="T176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="2:25" ht="15.6">
+    <row r="177" ht="14" spans="2:25">
       <c r="B177" s="4"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
@@ -13295,7 +13893,7 @@
       <c r="T177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="2:25" ht="15.6">
+    <row r="178" ht="14" spans="2:25">
       <c r="B178" s="4"/>
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
@@ -13308,7 +13906,7 @@
       <c r="T178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="2:25" ht="15.6">
+    <row r="179" ht="14" spans="2:25">
       <c r="B179" s="4"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
@@ -13321,7 +13919,7 @@
       <c r="T179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="2:25" ht="15.6">
+    <row r="180" ht="14" spans="2:25">
       <c r="B180" s="4"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
@@ -13334,7 +13932,7 @@
       <c r="T180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="2:25" ht="15.6">
+    <row r="181" ht="14" spans="2:25">
       <c r="B181" s="4"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
@@ -13347,7 +13945,7 @@
       <c r="T181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" spans="2:25" ht="15.6">
+    <row r="182" ht="14" spans="2:25">
       <c r="B182" s="4"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
@@ -13360,7 +13958,7 @@
       <c r="T182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="2:25" ht="15.6">
+    <row r="183" ht="14" spans="2:25">
       <c r="B183" s="4"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
@@ -13373,7 +13971,7 @@
       <c r="T183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="2:25" ht="15.6">
+    <row r="184" ht="14" spans="2:25">
       <c r="B184" s="4"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
@@ -13386,7 +13984,7 @@
       <c r="T184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="2:25" ht="15.6">
+    <row r="185" ht="14" spans="2:25">
       <c r="B185" s="4"/>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
@@ -13399,7 +13997,7 @@
       <c r="T185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="2:25" ht="15.6">
+    <row r="186" ht="14" spans="2:25">
       <c r="B186" s="4"/>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
@@ -13412,7 +14010,7 @@
       <c r="T186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="2:25" ht="15.6">
+    <row r="187" ht="14" spans="2:25">
       <c r="B187" s="4"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
@@ -13425,7 +14023,7 @@
       <c r="T187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188" spans="2:25" ht="15.6">
+    <row r="188" ht="14" spans="2:25">
       <c r="B188" s="4"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
@@ -13438,7 +14036,7 @@
       <c r="T188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="2:25" ht="15.6">
+    <row r="189" ht="14" spans="2:25">
       <c r="B189" s="4"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
@@ -13557,6 +14155,7 @@
       <c r="Y204" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/miniproject/template/Lectures/Lecture 4.xlsx
+++ b/miniproject/template/Lectures/Lecture 4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dora\Desktop\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S_AGI\Documents\GitHub\AI_teaching_project\miniproject\template\Lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C703B6E-D489-4598-983B-FF32F8C1FC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74345C54-E6A2-4248-A139-8E08F82E2DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="450" windowWidth="18870" windowHeight="10350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unit 4" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'unit 4'!$A$1:$W$204</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3731,7 +3742,7 @@
         <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3768,17 +3779,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3797,7 +3808,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3850,7 +3861,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3859,7 +3870,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4357,38 +4368,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4941C4A-9E3C-4E4A-B7BE-53D75DF3423A}">
   <dimension ref="A1:AB204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C108" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I113" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F44" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="2" width="8.6640625" style="1"/>
     <col min="3" max="3" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="31.9140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="25.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.21875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="31.88671875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="25.21875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.4140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.44140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="8.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.9140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.83203125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="18.83203125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="17.25" style="3" customWidth="1"/>
-    <col min="21" max="21" width="20.58203125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="15.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.77734375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="18.77734375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="17.21875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="20.5546875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="15.77734375" style="1" customWidth="1"/>
     <col min="23" max="23" width="20.33203125" style="1" customWidth="1"/>
     <col min="24" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="30" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="30" customFormat="1" ht="25.5" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>357</v>
       </c>
@@ -4464,7 +4475,7 @@
       <c r="AA1" s="27"/>
       <c r="AB1" s="27"/>
     </row>
-    <row r="2" spans="1:28" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" s="3" customFormat="1" ht="27.6">
       <c r="A2" s="11">
         <v>4</v>
       </c>
@@ -4476,7 +4487,7 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="18" t="s">
         <v>375</v>
       </c>
       <c r="G2" s="13" t="s">
@@ -4531,7 +4542,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" s="3" customFormat="1" ht="27.6">
       <c r="A3" s="11">
         <v>4</v>
       </c>
@@ -4543,7 +4554,7 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="18" t="s">
         <v>376</v>
       </c>
       <c r="G3" s="13" t="s">
@@ -4598,7 +4609,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" s="3" customFormat="1" ht="55.2">
       <c r="A4" s="11">
         <v>4</v>
       </c>
@@ -4610,7 +4621,7 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="18" t="s">
         <v>377</v>
       </c>
       <c r="G4" s="13" t="s">
@@ -4665,7 +4676,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" s="3" customFormat="1" ht="55.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -4677,7 +4688,7 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="18" t="s">
         <v>378</v>
       </c>
       <c r="G5" s="13" t="s">
@@ -4732,7 +4743,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="3" customFormat="1" ht="27.6">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -4744,7 +4755,7 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="18" t="s">
         <v>379</v>
       </c>
       <c r="G6" s="13" t="s">
@@ -4799,7 +4810,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" s="3" customFormat="1" ht="41.4">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -4813,7 +4824,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="18" t="s">
         <v>380</v>
       </c>
       <c r="G7" s="13" t="s">
@@ -4868,7 +4879,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" s="3" customFormat="1" ht="55.2">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -4882,7 +4893,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="18" t="s">
         <v>381</v>
       </c>
       <c r="G8" s="13" t="s">
@@ -4935,7 +4946,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" s="3" customFormat="1" ht="55.2">
       <c r="A9" s="11">
         <v>4</v>
       </c>
@@ -4949,7 +4960,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="18" t="s">
         <v>382</v>
       </c>
       <c r="G9" s="13" t="s">
@@ -5002,7 +5013,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" s="3" customFormat="1" ht="41.4">
       <c r="A10" s="11">
         <v>4</v>
       </c>
@@ -5016,7 +5027,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="18" t="s">
         <v>383</v>
       </c>
       <c r="G10" s="13" t="s">
@@ -5071,7 +5082,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" s="3" customFormat="1" ht="31.5" customHeight="1">
       <c r="A11" s="11">
         <v>4</v>
       </c>
@@ -5085,7 +5096,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="18" t="s">
         <v>384</v>
       </c>
       <c r="G11" s="13" t="s">
@@ -5140,7 +5151,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" s="3" customFormat="1" ht="69">
       <c r="A12" s="11">
         <v>4</v>
       </c>
@@ -5154,7 +5165,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="18" t="s">
         <v>385</v>
       </c>
       <c r="G12" s="13" t="s">
@@ -5209,7 +5220,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="3" customFormat="1" ht="41.4">
       <c r="A13" s="11">
         <v>4</v>
       </c>
@@ -5223,7 +5234,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="18" t="s">
         <v>386</v>
       </c>
       <c r="G13" s="13" t="s">
@@ -5278,7 +5289,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" s="3" customFormat="1" ht="69">
       <c r="A14" s="11">
         <v>4</v>
       </c>
@@ -5292,7 +5303,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="18" t="s">
         <v>387</v>
       </c>
       <c r="G14" s="13" t="s">
@@ -5347,7 +5358,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" s="3" customFormat="1" ht="69">
       <c r="A15" s="11">
         <v>4</v>
       </c>
@@ -5361,7 +5372,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="18" t="s">
         <v>388</v>
       </c>
       <c r="G15" s="13" t="s">
@@ -5416,7 +5427,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" s="3" customFormat="1" ht="69">
       <c r="A16" s="11">
         <v>4</v>
       </c>
@@ -5430,7 +5441,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="8"/>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="18" t="s">
         <v>389</v>
       </c>
       <c r="G16" s="13" t="s">
@@ -5485,7 +5496,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A17" s="11">
         <v>4</v>
       </c>
@@ -5499,7 +5510,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="18" t="s">
         <v>390</v>
       </c>
       <c r="G17" s="13" t="s">
@@ -5554,7 +5565,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A18" s="11">
         <v>4</v>
       </c>
@@ -5568,7 +5579,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="18" t="s">
         <v>391</v>
       </c>
       <c r="G18" s="13" t="s">
@@ -5623,7 +5634,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A19" s="11">
         <v>4</v>
       </c>
@@ -5637,7 +5648,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="18" t="s">
         <v>392</v>
       </c>
       <c r="G19" s="13" t="s">
@@ -5692,7 +5703,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A20" s="11">
         <v>4</v>
       </c>
@@ -5706,7 +5717,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="18" t="s">
         <v>393</v>
       </c>
       <c r="G20" s="13" t="s">
@@ -5761,7 +5772,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" s="3" customFormat="1" ht="69">
       <c r="A21" s="11">
         <v>4</v>
       </c>
@@ -5775,7 +5786,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="18" t="s">
         <v>394</v>
       </c>
       <c r="G21" s="13" t="s">
@@ -5830,7 +5841,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A22" s="11">
         <v>4</v>
       </c>
@@ -5844,7 +5855,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="18" t="s">
         <v>395</v>
       </c>
       <c r="G22" s="13" t="s">
@@ -5899,7 +5910,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A23" s="11">
         <v>4</v>
       </c>
@@ -5913,7 +5924,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="18" t="s">
         <v>396</v>
       </c>
       <c r="G23" s="13" t="s">
@@ -5966,7 +5977,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A24" s="11">
         <v>4</v>
       </c>
@@ -5980,7 +5991,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="18" t="s">
         <v>397</v>
       </c>
       <c r="G24" s="13" t="s">
@@ -6033,7 +6044,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="25" spans="1:23" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" s="3" customFormat="1" ht="69">
       <c r="A25" s="11">
         <v>4</v>
       </c>
@@ -6047,7 +6058,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="18" t="s">
         <v>398</v>
       </c>
       <c r="G25" s="13" t="s">
@@ -6102,7 +6113,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" s="3" customFormat="1" ht="82.8">
       <c r="A26" s="11">
         <v>4</v>
       </c>
@@ -6116,7 +6127,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="8"/>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="18" t="s">
         <v>399</v>
       </c>
       <c r="G26" s="13" t="s">
@@ -6171,7 +6182,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A27" s="11">
         <v>4</v>
       </c>
@@ -6185,7 +6196,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="8"/>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="18" t="s">
         <v>400</v>
       </c>
       <c r="G27" s="13" t="s">
@@ -6240,7 +6251,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A28" s="11">
         <v>4</v>
       </c>
@@ -6254,7 +6265,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="8"/>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="18" t="s">
         <v>401</v>
       </c>
       <c r="G28" s="13" t="s">
@@ -6309,7 +6320,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A29" s="11">
         <v>4</v>
       </c>
@@ -6323,7 +6334,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="8"/>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="18" t="s">
         <v>402</v>
       </c>
       <c r="G29" s="13" t="s">
@@ -6378,7 +6389,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A30" s="11">
         <v>4</v>
       </c>
@@ -6392,7 +6403,7 @@
         <v>13</v>
       </c>
       <c r="E30" s="8"/>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="18" t="s">
         <v>403</v>
       </c>
       <c r="G30" s="13" t="s">
@@ -6447,7 +6458,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A31" s="11">
         <v>4</v>
       </c>
@@ -6461,7 +6472,7 @@
         <v>13</v>
       </c>
       <c r="E31" s="8"/>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="18" t="s">
         <v>404</v>
       </c>
       <c r="G31" s="13" t="s">
@@ -6516,7 +6527,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="32" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A32" s="11">
         <v>4</v>
       </c>
@@ -6530,7 +6541,7 @@
         <v>13</v>
       </c>
       <c r="E32" s="8"/>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="18" t="s">
         <v>405</v>
       </c>
       <c r="G32" s="13" t="s">
@@ -6585,7 +6596,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A33" s="11">
         <v>4</v>
       </c>
@@ -6599,7 +6610,7 @@
         <v>13</v>
       </c>
       <c r="E33" s="8"/>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="18" t="s">
         <v>406</v>
       </c>
       <c r="G33" s="13" t="s">
@@ -6654,7 +6665,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A34" s="11">
         <v>4</v>
       </c>
@@ -6668,7 +6679,7 @@
         <v>13</v>
       </c>
       <c r="E34" s="8"/>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="18" t="s">
         <v>407</v>
       </c>
       <c r="G34" s="13" t="s">
@@ -6723,7 +6734,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A35" s="11">
         <v>4</v>
       </c>
@@ -6737,7 +6748,7 @@
         <v>13</v>
       </c>
       <c r="E35" s="8"/>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="18" t="s">
         <v>408</v>
       </c>
       <c r="G35" s="13" t="s">
@@ -6792,7 +6803,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A36" s="11">
         <v>4</v>
       </c>
@@ -6806,7 +6817,7 @@
         <v>13</v>
       </c>
       <c r="E36" s="8"/>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="18" t="s">
         <v>409</v>
       </c>
       <c r="G36" s="13" t="s">
@@ -6861,7 +6872,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" s="3" customFormat="1" ht="27.6">
       <c r="A37" s="11">
         <v>4</v>
       </c>
@@ -6875,7 +6886,7 @@
         <v>13</v>
       </c>
       <c r="E37" s="8"/>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="18" t="s">
         <v>410</v>
       </c>
       <c r="G37" s="13" t="s">
@@ -6930,7 +6941,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A38" s="11">
         <v>4</v>
       </c>
@@ -6944,7 +6955,7 @@
         <v>13</v>
       </c>
       <c r="E38" s="8"/>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="18" t="s">
         <v>411</v>
       </c>
       <c r="G38" s="13" t="s">
@@ -6999,7 +7010,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="39" spans="1:23" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A39" s="11">
         <v>4</v>
       </c>
@@ -7013,7 +7024,7 @@
         <v>13</v>
       </c>
       <c r="E39" s="8"/>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="18" t="s">
         <v>412</v>
       </c>
       <c r="G39" s="13" t="s">
@@ -7066,7 +7077,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="40" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A40" s="11">
         <v>4</v>
       </c>
@@ -7080,7 +7091,7 @@
         <v>13</v>
       </c>
       <c r="E40" s="8"/>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="18" t="s">
         <v>413</v>
       </c>
       <c r="G40" s="13" t="s">
@@ -7133,7 +7144,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A41" s="11">
         <v>4</v>
       </c>
@@ -7147,7 +7158,7 @@
         <v>13</v>
       </c>
       <c r="E41" s="8"/>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="18" t="s">
         <v>414</v>
       </c>
       <c r="G41" s="13" t="s">
@@ -7202,7 +7213,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A42" s="11">
         <v>4</v>
       </c>
@@ -7216,7 +7227,7 @@
         <v>13</v>
       </c>
       <c r="E42" s="8"/>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="18" t="s">
         <v>415</v>
       </c>
       <c r="G42" s="13" t="s">
@@ -7271,7 +7282,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="43" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A43" s="11">
         <v>4</v>
       </c>
@@ -7285,7 +7296,7 @@
         <v>13</v>
       </c>
       <c r="E43" s="8"/>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="18" t="s">
         <v>416</v>
       </c>
       <c r="G43" s="13" t="s">
@@ -7340,7 +7351,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="44" spans="1:23" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A44" s="11">
         <v>4</v>
       </c>
@@ -7354,7 +7365,7 @@
         <v>13</v>
       </c>
       <c r="E44" s="8"/>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="18" t="s">
         <v>417</v>
       </c>
       <c r="G44" s="13" t="s">
@@ -7405,7 +7416,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="45" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A45" s="11">
         <v>4</v>
       </c>
@@ -7419,7 +7430,7 @@
         <v>13</v>
       </c>
       <c r="E45" s="8"/>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="18" t="s">
         <v>418</v>
       </c>
       <c r="G45" s="13" t="s">
@@ -7474,7 +7485,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="46" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A46" s="11">
         <v>4</v>
       </c>
@@ -7488,7 +7499,7 @@
         <v>13</v>
       </c>
       <c r="E46" s="8"/>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="18" t="s">
         <v>419</v>
       </c>
       <c r="G46" s="13" t="s">
@@ -7543,7 +7554,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="47" spans="1:23" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" s="3" customFormat="1" ht="27.6">
       <c r="A47" s="11">
         <v>4</v>
       </c>
@@ -7557,7 +7568,7 @@
         <v>13</v>
       </c>
       <c r="E47" s="8"/>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="18" t="s">
         <v>420</v>
       </c>
       <c r="G47" s="13" t="s">
@@ -7610,7 +7621,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="48" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A48" s="11">
         <v>4</v>
       </c>
@@ -7624,7 +7635,7 @@
         <v>13</v>
       </c>
       <c r="E48" s="8"/>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="18" t="s">
         <v>421</v>
       </c>
       <c r="G48" s="13" t="s">
@@ -7679,7 +7690,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="49" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A49" s="11">
         <v>4</v>
       </c>
@@ -7693,7 +7704,7 @@
         <v>13</v>
       </c>
       <c r="E49" s="8"/>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="18" t="s">
         <v>422</v>
       </c>
       <c r="G49" s="13" t="s">
@@ -7748,7 +7759,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="50" spans="1:23" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A50" s="11">
         <v>4</v>
       </c>
@@ -7762,7 +7773,7 @@
         <v>13</v>
       </c>
       <c r="E50" s="8"/>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="18" t="s">
         <v>423</v>
       </c>
       <c r="G50" s="13" t="s">
@@ -7817,7 +7828,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="51" spans="1:23" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A51" s="11">
         <v>4</v>
       </c>
@@ -7831,7 +7842,7 @@
         <v>13</v>
       </c>
       <c r="E51" s="8"/>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="18" t="s">
         <v>424</v>
       </c>
       <c r="G51" s="13" t="s">
@@ -7886,7 +7897,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="52" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A52" s="11">
         <v>4</v>
       </c>
@@ -7900,7 +7911,7 @@
         <v>13</v>
       </c>
       <c r="E52" s="8"/>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="18" t="s">
         <v>425</v>
       </c>
       <c r="G52" s="13" t="s">
@@ -7955,7 +7966,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="53" spans="1:23" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A53" s="11">
         <v>4</v>
       </c>
@@ -7969,7 +7980,7 @@
         <v>13</v>
       </c>
       <c r="E53" s="8"/>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="18" t="s">
         <v>426</v>
       </c>
       <c r="G53" s="13" t="s">
@@ -8024,7 +8035,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="54" spans="1:23" s="22" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" s="22" customFormat="1" ht="41.4">
       <c r="A54" s="11">
         <v>4</v>
       </c>
@@ -8038,7 +8049,7 @@
         <v>13</v>
       </c>
       <c r="E54" s="8"/>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="18" t="s">
         <v>427</v>
       </c>
       <c r="G54" s="13" t="s">
@@ -8090,7 +8101,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="55" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A55" s="11">
         <v>4</v>
       </c>
@@ -8104,7 +8115,7 @@
         <v>13</v>
       </c>
       <c r="E55" s="8"/>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="18" t="s">
         <v>428</v>
       </c>
       <c r="G55" s="13" t="s">
@@ -8159,7 +8170,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="56" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A56" s="11">
         <v>4</v>
       </c>
@@ -8173,7 +8184,7 @@
         <v>13</v>
       </c>
       <c r="E56" s="8"/>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="18" t="s">
         <v>429</v>
       </c>
       <c r="G56" s="13" t="s">
@@ -8228,7 +8239,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="57" spans="1:23" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" s="3" customFormat="1" ht="69">
       <c r="A57" s="11">
         <v>4</v>
       </c>
@@ -8242,7 +8253,7 @@
         <v>13</v>
       </c>
       <c r="E57" s="8"/>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="18" t="s">
         <v>430</v>
       </c>
       <c r="G57" s="13" t="s">
@@ -8297,7 +8308,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="58" spans="1:23" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" s="3" customFormat="1" ht="69">
       <c r="A58" s="11">
         <v>4</v>
       </c>
@@ -8311,7 +8322,7 @@
         <v>13</v>
       </c>
       <c r="E58" s="8"/>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="18" t="s">
         <v>431</v>
       </c>
       <c r="G58" s="13" t="s">
@@ -8366,7 +8377,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="59" spans="1:23" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A59" s="11">
         <v>4</v>
       </c>
@@ -8380,7 +8391,7 @@
         <v>13</v>
       </c>
       <c r="E59" s="8"/>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="18" t="s">
         <v>432</v>
       </c>
       <c r="G59" s="13" t="s">
@@ -8435,7 +8446,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="60" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A60" s="11">
         <v>4</v>
       </c>
@@ -8449,7 +8460,7 @@
         <v>13</v>
       </c>
       <c r="E60" s="8"/>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="18" t="s">
         <v>433</v>
       </c>
       <c r="G60" s="13" t="s">
@@ -8501,7 +8512,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="61" spans="1:23" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" s="3" customFormat="1" ht="69">
       <c r="A61" s="11">
         <v>4</v>
       </c>
@@ -8515,7 +8526,7 @@
         <v>13</v>
       </c>
       <c r="E61" s="8"/>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="18" t="s">
         <v>434</v>
       </c>
       <c r="G61" s="13" t="s">
@@ -8570,7 +8581,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="62" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A62" s="11">
         <v>4</v>
       </c>
@@ -8584,7 +8595,7 @@
         <v>13</v>
       </c>
       <c r="E62" s="8"/>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="18" t="s">
         <v>435</v>
       </c>
       <c r="G62" s="13" t="s">
@@ -8639,7 +8650,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="63" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A63" s="11">
         <v>4</v>
       </c>
@@ -8651,7 +8662,7 @@
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
-      <c r="F63" s="11" t="s">
+      <c r="F63" s="18" t="s">
         <v>436</v>
       </c>
       <c r="G63" s="13" t="s">
@@ -8706,7 +8717,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="64" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A64" s="11">
         <v>4</v>
       </c>
@@ -8718,7 +8729,7 @@
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
-      <c r="F64" s="11" t="s">
+      <c r="F64" s="18" t="s">
         <v>437</v>
       </c>
       <c r="G64" s="13" t="s">
@@ -8773,7 +8784,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A65" s="11">
         <v>4</v>
       </c>
@@ -8785,7 +8796,7 @@
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="11" t="s">
+      <c r="F65" s="18" t="s">
         <v>438</v>
       </c>
       <c r="G65" s="13" t="s">
@@ -8840,7 +8851,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="66" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A66" s="11">
         <v>4</v>
       </c>
@@ -8852,7 +8863,7 @@
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
-      <c r="F66" s="11" t="s">
+      <c r="F66" s="18" t="s">
         <v>439</v>
       </c>
       <c r="G66" s="13" t="s">
@@ -8907,7 +8918,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="67" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A67" s="11">
         <v>4</v>
       </c>
@@ -8919,7 +8930,7 @@
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
-      <c r="F67" s="11" t="s">
+      <c r="F67" s="18" t="s">
         <v>440</v>
       </c>
       <c r="G67" s="13" t="s">
@@ -8971,7 +8982,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="68" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A68" s="11">
         <v>4</v>
       </c>
@@ -8983,7 +8994,7 @@
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
-      <c r="F68" s="11" t="s">
+      <c r="F68" s="18" t="s">
         <v>441</v>
       </c>
       <c r="G68" s="13" t="s">
@@ -9038,7 +9049,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="69" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A69" s="11">
         <v>4</v>
       </c>
@@ -9050,7 +9061,7 @@
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
-      <c r="F69" s="11" t="s">
+      <c r="F69" s="18" t="s">
         <v>442</v>
       </c>
       <c r="G69" s="13" t="s">
@@ -9105,7 +9116,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="70" spans="1:23" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A70" s="11">
         <v>4</v>
       </c>
@@ -9117,7 +9128,7 @@
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
-      <c r="F70" s="11" t="s">
+      <c r="F70" s="18" t="s">
         <v>443</v>
       </c>
       <c r="G70" s="13" t="s">
@@ -9172,7 +9183,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="71" spans="1:23" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A71" s="11">
         <v>4</v>
       </c>
@@ -9184,7 +9195,7 @@
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
-      <c r="F71" s="11" t="s">
+      <c r="F71" s="18" t="s">
         <v>444</v>
       </c>
       <c r="G71" s="13" t="s">
@@ -9239,7 +9250,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="72" spans="1:23" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A72" s="11">
         <v>4</v>
       </c>
@@ -9251,7 +9262,7 @@
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="18" t="s">
         <v>445</v>
       </c>
       <c r="G72" s="13" t="s">
@@ -9306,7 +9317,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="73" spans="1:23" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A73" s="11">
         <v>4</v>
       </c>
@@ -9318,7 +9329,7 @@
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
-      <c r="F73" s="11" t="s">
+      <c r="F73" s="18" t="s">
         <v>446</v>
       </c>
       <c r="G73" s="13" t="s">
@@ -9373,7 +9384,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="74" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A74" s="11">
         <v>4</v>
       </c>
@@ -9385,7 +9396,7 @@
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
-      <c r="F74" s="11" t="s">
+      <c r="F74" s="18" t="s">
         <v>447</v>
       </c>
       <c r="G74" s="13" t="s">
@@ -9440,7 +9451,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="75" spans="1:23" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A75" s="11">
         <v>4</v>
       </c>
@@ -9452,7 +9463,7 @@
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
-      <c r="F75" s="11" t="s">
+      <c r="F75" s="18" t="s">
         <v>448</v>
       </c>
       <c r="G75" s="13" t="s">
@@ -9507,7 +9518,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="76" spans="1:23" s="3" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" s="3" customFormat="1" ht="69">
       <c r="A76" s="11">
         <v>4</v>
       </c>
@@ -9519,7 +9530,7 @@
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
-      <c r="F76" s="11" t="s">
+      <c r="F76" s="18" t="s">
         <v>449</v>
       </c>
       <c r="G76" s="13" t="s">
@@ -9568,7 +9579,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="77" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A77" s="11">
         <v>4</v>
       </c>
@@ -9580,7 +9591,7 @@
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
-      <c r="F77" s="11" t="s">
+      <c r="F77" s="18" t="s">
         <v>450</v>
       </c>
       <c r="G77" s="13" t="s">
@@ -9635,7 +9646,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="78" spans="1:23" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" s="3" customFormat="1" ht="27.6">
       <c r="A78" s="11">
         <v>4</v>
       </c>
@@ -9647,7 +9658,7 @@
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
-      <c r="F78" s="11" t="s">
+      <c r="F78" s="18" t="s">
         <v>451</v>
       </c>
       <c r="G78" s="13" t="s">
@@ -9696,7 +9707,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="79" spans="1:23" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A79" s="11">
         <v>4</v>
       </c>
@@ -9708,7 +9719,7 @@
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
-      <c r="F79" s="11" t="s">
+      <c r="F79" s="18" t="s">
         <v>452</v>
       </c>
       <c r="G79" s="13" t="s">
@@ -9763,7 +9774,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="80" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A80" s="11">
         <v>4</v>
       </c>
@@ -9775,7 +9786,7 @@
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
-      <c r="F80" s="11" t="s">
+      <c r="F80" s="18" t="s">
         <v>453</v>
       </c>
       <c r="G80" s="13" t="s">
@@ -9830,7 +9841,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="81" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A81" s="11">
         <v>4</v>
       </c>
@@ -9842,7 +9853,7 @@
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
-      <c r="F81" s="11" t="s">
+      <c r="F81" s="18" t="s">
         <v>454</v>
       </c>
       <c r="G81" s="13" t="s">
@@ -9897,7 +9908,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="82" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A82" s="11">
         <v>4</v>
       </c>
@@ -9909,7 +9920,7 @@
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
-      <c r="F82" s="11" t="s">
+      <c r="F82" s="18" t="s">
         <v>455</v>
       </c>
       <c r="G82" s="13" t="s">
@@ -9961,7 +9972,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="83" spans="1:23" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" s="3" customFormat="1" ht="27.6">
       <c r="A83" s="11">
         <v>4</v>
       </c>
@@ -9973,7 +9984,7 @@
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
-      <c r="F83" s="11" t="s">
+      <c r="F83" s="18" t="s">
         <v>456</v>
       </c>
       <c r="G83" s="13" t="s">
@@ -10021,7 +10032,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="84" spans="1:23" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A84" s="11">
         <v>4</v>
       </c>
@@ -10033,7 +10044,7 @@
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
-      <c r="F84" s="11" t="s">
+      <c r="F84" s="18" t="s">
         <v>457</v>
       </c>
       <c r="G84" s="13" t="s">
@@ -10088,7 +10099,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="85" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A85" s="11">
         <v>4</v>
       </c>
@@ -10100,7 +10111,7 @@
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
-      <c r="F85" s="11" t="s">
+      <c r="F85" s="18" t="s">
         <v>458</v>
       </c>
       <c r="G85" s="13" t="s">
@@ -10155,7 +10166,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="86" spans="1:23" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" s="3" customFormat="1" ht="69">
       <c r="A86" s="11">
         <v>4</v>
       </c>
@@ -10167,7 +10178,7 @@
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
-      <c r="F86" s="11" t="s">
+      <c r="F86" s="18" t="s">
         <v>459</v>
       </c>
       <c r="G86" s="13" t="s">
@@ -10222,7 +10233,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="87" spans="1:23" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A87" s="11">
         <v>4</v>
       </c>
@@ -10234,7 +10245,7 @@
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
-      <c r="F87" s="11" t="s">
+      <c r="F87" s="18" t="s">
         <v>460</v>
       </c>
       <c r="G87" s="13" t="s">
@@ -10286,7 +10297,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="88" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A88" s="11">
         <v>4</v>
       </c>
@@ -10298,7 +10309,7 @@
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
-      <c r="F88" s="11" t="s">
+      <c r="F88" s="18" t="s">
         <v>461</v>
       </c>
       <c r="G88" s="13" t="s">
@@ -10353,7 +10364,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="89" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A89" s="11">
         <v>4</v>
       </c>
@@ -10365,7 +10376,7 @@
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
-      <c r="F89" s="11" t="s">
+      <c r="F89" s="18" t="s">
         <v>462</v>
       </c>
       <c r="G89" s="13" t="s">
@@ -10420,7 +10431,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="90" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A90" s="11">
         <v>4</v>
       </c>
@@ -10432,7 +10443,7 @@
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
-      <c r="F90" s="11" t="s">
+      <c r="F90" s="18" t="s">
         <v>463</v>
       </c>
       <c r="G90" s="13" t="s">
@@ -10487,7 +10498,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="91" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A91" s="11">
         <v>4</v>
       </c>
@@ -10499,7 +10510,7 @@
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
-      <c r="F91" s="11" t="s">
+      <c r="F91" s="18" t="s">
         <v>464</v>
       </c>
       <c r="G91" s="13" t="s">
@@ -10554,7 +10565,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="92" spans="1:23" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" s="3" customFormat="1" ht="27.6">
       <c r="A92" s="11">
         <v>4</v>
       </c>
@@ -10566,7 +10577,7 @@
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
-      <c r="F92" s="11" t="s">
+      <c r="F92" s="18" t="s">
         <v>465</v>
       </c>
       <c r="G92" s="13" t="s">
@@ -10618,7 +10629,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="93" spans="1:23" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A93" s="11">
         <v>4</v>
       </c>
@@ -10630,7 +10641,7 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
-      <c r="F93" s="11" t="s">
+      <c r="F93" s="18" t="s">
         <v>466</v>
       </c>
       <c r="G93" s="13" t="s">
@@ -10682,7 +10693,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="94" spans="1:23" s="3" customFormat="1" ht="42.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" s="3" customFormat="1" ht="43.2">
       <c r="A94" s="11">
         <v>4</v>
       </c>
@@ -10694,7 +10705,7 @@
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="14"/>
-      <c r="F94" s="11" t="s">
+      <c r="F94" s="18" t="s">
         <v>467</v>
       </c>
       <c r="G94" s="13" t="s">
@@ -10749,7 +10760,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="95" spans="1:23" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" s="3" customFormat="1" ht="27.6">
       <c r="A95" s="11">
         <v>4</v>
       </c>
@@ -10761,7 +10772,7 @@
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
-      <c r="F95" s="11" t="s">
+      <c r="F95" s="18" t="s">
         <v>468</v>
       </c>
       <c r="G95" s="13" t="s">
@@ -10816,7 +10827,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="96" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A96" s="11">
         <v>4</v>
       </c>
@@ -10828,7 +10839,7 @@
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
-      <c r="F96" s="11" t="s">
+      <c r="F96" s="18" t="s">
         <v>469</v>
       </c>
       <c r="G96" s="13" t="s">
@@ -10883,7 +10894,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="97" spans="1:23" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" s="3" customFormat="1" ht="69">
       <c r="A97" s="11">
         <v>4</v>
       </c>
@@ -10895,7 +10906,7 @@
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
-      <c r="F97" s="11" t="s">
+      <c r="F97" s="18" t="s">
         <v>470</v>
       </c>
       <c r="G97" s="13" t="s">
@@ -10950,7 +10961,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="98" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A98" s="11">
         <v>4</v>
       </c>
@@ -10962,7 +10973,7 @@
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
-      <c r="F98" s="11" t="s">
+      <c r="F98" s="18" t="s">
         <v>471</v>
       </c>
       <c r="G98" s="13" t="s">
@@ -11017,7 +11028,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="99" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A99" s="11">
         <v>4</v>
       </c>
@@ -11029,7 +11040,7 @@
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
-      <c r="F99" s="11" t="s">
+      <c r="F99" s="18" t="s">
         <v>472</v>
       </c>
       <c r="G99" s="13" t="s">
@@ -11084,7 +11095,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="100" spans="1:23" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A100" s="11">
         <v>4</v>
       </c>
@@ -11096,7 +11107,7 @@
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
-      <c r="F100" s="11" t="s">
+      <c r="F100" s="18" t="s">
         <v>473</v>
       </c>
       <c r="G100" s="13" t="s">
@@ -11151,7 +11162,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="101" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A101" s="11">
         <v>4</v>
       </c>
@@ -11163,7 +11174,7 @@
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
-      <c r="F101" s="11" t="s">
+      <c r="F101" s="18" t="s">
         <v>474</v>
       </c>
       <c r="G101" s="13" t="s">
@@ -11218,7 +11229,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="102" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A102" s="11">
         <v>4</v>
       </c>
@@ -11230,7 +11241,7 @@
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
-      <c r="F102" s="11" t="s">
+      <c r="F102" s="18" t="s">
         <v>475</v>
       </c>
       <c r="G102" s="13" t="s">
@@ -11285,7 +11296,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="103" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A103" s="11">
         <v>4</v>
       </c>
@@ -11297,7 +11308,7 @@
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
-      <c r="F103" s="11" t="s">
+      <c r="F103" s="18" t="s">
         <v>476</v>
       </c>
       <c r="G103" s="13" t="s">
@@ -11349,7 +11360,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="104" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A104" s="11">
         <v>4</v>
       </c>
@@ -11361,7 +11372,7 @@
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
-      <c r="F104" s="11" t="s">
+      <c r="F104" s="18" t="s">
         <v>477</v>
       </c>
       <c r="G104" s="13" t="s">
@@ -11413,7 +11424,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="105" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A105" s="11">
         <v>4</v>
       </c>
@@ -11425,7 +11436,7 @@
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
-      <c r="F105" s="11" t="s">
+      <c r="F105" s="18" t="s">
         <v>478</v>
       </c>
       <c r="G105" s="13" t="s">
@@ -11480,7 +11491,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="106" spans="1:23" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" s="3" customFormat="1" ht="41.4">
       <c r="A106" s="11">
         <v>4</v>
       </c>
@@ -11492,7 +11503,7 @@
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
-      <c r="F106" s="11" t="s">
+      <c r="F106" s="18" t="s">
         <v>479</v>
       </c>
       <c r="G106" s="13" t="s">
@@ -11544,7 +11555,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="107" spans="1:23" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" s="3" customFormat="1" ht="55.2">
       <c r="A107" s="11">
         <v>4</v>
       </c>
@@ -11556,7 +11567,7 @@
       </c>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
-      <c r="F107" s="11" t="s">
+      <c r="F107" s="18" t="s">
         <v>480</v>
       </c>
       <c r="G107" s="13" t="s">
@@ -11611,7 +11622,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="42" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" ht="41.4">
       <c r="A108" s="6">
         <v>4</v>
       </c>
@@ -11625,7 +11636,7 @@
         <v>222</v>
       </c>
       <c r="E108" s="8"/>
-      <c r="F108" s="6" t="s">
+      <c r="F108" s="7" t="s">
         <v>481</v>
       </c>
       <c r="G108" s="9" t="s">
@@ -11680,7 +11691,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="42" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" ht="55.2">
       <c r="A109" s="6">
         <v>4</v>
       </c>
@@ -11694,7 +11705,7 @@
         <v>222</v>
       </c>
       <c r="E109" s="8"/>
-      <c r="F109" s="6" t="s">
+      <c r="F109" s="7" t="s">
         <v>482</v>
       </c>
       <c r="G109" s="9" t="s">
@@ -11749,7 +11760,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="42" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" ht="41.4">
       <c r="A110" s="6">
         <v>4</v>
       </c>
@@ -11763,7 +11774,7 @@
         <v>222</v>
       </c>
       <c r="E110" s="8"/>
-      <c r="F110" s="6" t="s">
+      <c r="F110" s="7" t="s">
         <v>483</v>
       </c>
       <c r="G110" s="9" t="s">
@@ -11818,7 +11829,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="28" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" ht="41.4">
       <c r="A111" s="6">
         <v>4</v>
       </c>
@@ -11832,7 +11843,7 @@
         <v>222</v>
       </c>
       <c r="E111" s="8"/>
-      <c r="F111" s="6" t="s">
+      <c r="F111" s="7" t="s">
         <v>484</v>
       </c>
       <c r="G111" s="9" t="s">
@@ -11887,7 +11898,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="42" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" ht="55.2">
       <c r="A112" s="6">
         <v>4</v>
       </c>
@@ -11901,7 +11912,7 @@
         <v>222</v>
       </c>
       <c r="E112" s="8"/>
-      <c r="F112" s="6" t="s">
+      <c r="F112" s="7" t="s">
         <v>485</v>
       </c>
       <c r="G112" s="9" t="s">
@@ -11956,7 +11967,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="42" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" ht="41.4">
       <c r="A113" s="6">
         <v>4</v>
       </c>
@@ -11970,7 +11981,7 @@
         <v>222</v>
       </c>
       <c r="E113" s="8"/>
-      <c r="F113" s="6" t="s">
+      <c r="F113" s="7" t="s">
         <v>486</v>
       </c>
       <c r="G113" s="9" t="s">
@@ -12025,7 +12036,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="28" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" ht="27.6">
       <c r="A114" s="6">
         <v>4</v>
       </c>
@@ -12039,7 +12050,7 @@
         <v>222</v>
       </c>
       <c r="E114" s="8"/>
-      <c r="F114" s="6" t="s">
+      <c r="F114" s="7" t="s">
         <v>487</v>
       </c>
       <c r="G114" s="9" t="s">
@@ -12091,7 +12102,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="42" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" ht="41.4">
       <c r="A115" s="6">
         <v>4</v>
       </c>
@@ -12105,7 +12116,7 @@
         <v>222</v>
       </c>
       <c r="E115" s="8"/>
-      <c r="F115" s="6" t="s">
+      <c r="F115" s="7" t="s">
         <v>488</v>
       </c>
       <c r="G115" s="9" t="s">
@@ -12160,7 +12171,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="28" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" ht="41.4">
       <c r="A116" s="6">
         <v>4</v>
       </c>
@@ -12174,7 +12185,7 @@
         <v>222</v>
       </c>
       <c r="E116" s="8"/>
-      <c r="F116" s="6" t="s">
+      <c r="F116" s="7" t="s">
         <v>489</v>
       </c>
       <c r="G116" s="9" t="s">
@@ -12229,7 +12240,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="42" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" ht="41.4">
       <c r="A117" s="6">
         <v>4</v>
       </c>
@@ -12243,7 +12254,7 @@
         <v>222</v>
       </c>
       <c r="E117" s="8"/>
-      <c r="F117" s="6" t="s">
+      <c r="F117" s="7" t="s">
         <v>490</v>
       </c>
       <c r="G117" s="9" t="s">
@@ -12298,7 +12309,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="28" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" ht="41.4">
       <c r="A118" s="6">
         <v>4</v>
       </c>
@@ -12312,7 +12323,7 @@
         <v>222</v>
       </c>
       <c r="E118" s="8"/>
-      <c r="F118" s="6" t="s">
+      <c r="F118" s="7" t="s">
         <v>491</v>
       </c>
       <c r="G118" s="9" t="s">
@@ -12367,7 +12378,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="28" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" ht="41.4">
       <c r="A119" s="6">
         <v>4</v>
       </c>
@@ -12381,7 +12392,7 @@
         <v>222</v>
       </c>
       <c r="E119" s="8"/>
-      <c r="F119" s="6" t="s">
+      <c r="F119" s="7" t="s">
         <v>492</v>
       </c>
       <c r="G119" s="9" t="s">
@@ -12436,7 +12447,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="42" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" ht="41.4">
       <c r="A120" s="6">
         <v>4</v>
       </c>
@@ -12450,7 +12461,7 @@
         <v>222</v>
       </c>
       <c r="E120" s="8"/>
-      <c r="F120" s="6" t="s">
+      <c r="F120" s="7" t="s">
         <v>493</v>
       </c>
       <c r="G120" s="9" t="s">
@@ -12505,7 +12516,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="42" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" ht="41.4">
       <c r="A121" s="6">
         <v>4</v>
       </c>
@@ -12519,7 +12530,7 @@
         <v>222</v>
       </c>
       <c r="E121" s="8"/>
-      <c r="F121" s="6" t="s">
+      <c r="F121" s="7" t="s">
         <v>494</v>
       </c>
       <c r="G121" s="9" t="s">
@@ -12574,7 +12585,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="42" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" ht="55.2">
       <c r="A122" s="6">
         <v>4</v>
       </c>
@@ -12588,7 +12599,7 @@
         <v>222</v>
       </c>
       <c r="E122" s="8"/>
-      <c r="F122" s="6" t="s">
+      <c r="F122" s="7" t="s">
         <v>495</v>
       </c>
       <c r="G122" s="9" t="s">
@@ -12643,7 +12654,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="28" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" ht="41.4">
       <c r="A123" s="6">
         <v>4</v>
       </c>
@@ -12657,7 +12668,7 @@
         <v>222</v>
       </c>
       <c r="E123" s="8"/>
-      <c r="F123" s="6" t="s">
+      <c r="F123" s="7" t="s">
         <v>496</v>
       </c>
       <c r="G123" s="9" t="s">
@@ -12712,7 +12723,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="28" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" ht="41.4">
       <c r="A124" s="6">
         <v>4</v>
       </c>
@@ -12726,7 +12737,7 @@
         <v>222</v>
       </c>
       <c r="E124" s="8"/>
-      <c r="F124" s="6" t="s">
+      <c r="F124" s="7" t="s">
         <v>497</v>
       </c>
       <c r="G124" s="9" t="s">
@@ -12781,7 +12792,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="42" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" ht="55.2">
       <c r="A125" s="6">
         <v>4</v>
       </c>
@@ -12795,7 +12806,7 @@
         <v>222</v>
       </c>
       <c r="E125" s="8"/>
-      <c r="F125" s="6" t="s">
+      <c r="F125" s="7" t="s">
         <v>498</v>
       </c>
       <c r="G125" s="9" t="s">
@@ -12850,7 +12861,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="42" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" ht="41.4">
       <c r="A126" s="6">
         <v>4</v>
       </c>
@@ -12864,7 +12875,7 @@
         <v>222</v>
       </c>
       <c r="E126" s="8"/>
-      <c r="F126" s="6" t="s">
+      <c r="F126" s="7" t="s">
         <v>499</v>
       </c>
       <c r="G126" s="9" t="s">
@@ -12919,7 +12930,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="28" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" ht="27.6">
       <c r="A127" s="6">
         <v>4</v>
       </c>
@@ -12933,7 +12944,7 @@
         <v>222</v>
       </c>
       <c r="E127" s="8"/>
-      <c r="F127" s="6" t="s">
+      <c r="F127" s="7" t="s">
         <v>500</v>
       </c>
       <c r="G127" s="9" t="s">
@@ -12985,7 +12996,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="28" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" ht="41.4">
       <c r="A128" s="6">
         <v>4</v>
       </c>
@@ -12999,7 +13010,7 @@
         <v>222</v>
       </c>
       <c r="E128" s="8"/>
-      <c r="F128" s="6" t="s">
+      <c r="F128" s="7" t="s">
         <v>501</v>
       </c>
       <c r="G128" s="9" t="s">
@@ -13051,7 +13062,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="28" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" ht="41.4">
       <c r="A129" s="6">
         <v>4</v>
       </c>
@@ -13065,7 +13076,7 @@
         <v>222</v>
       </c>
       <c r="E129" s="8"/>
-      <c r="F129" s="6" t="s">
+      <c r="F129" s="7" t="s">
         <v>502</v>
       </c>
       <c r="G129" s="9" t="s">
@@ -13120,7 +13131,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="130" spans="1:23" ht="28" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" ht="27.6">
       <c r="A130" s="6">
         <v>4</v>
       </c>
@@ -13134,7 +13145,7 @@
         <v>222</v>
       </c>
       <c r="E130" s="8"/>
-      <c r="F130" s="6" t="s">
+      <c r="F130" s="7" t="s">
         <v>503</v>
       </c>
       <c r="G130" s="9" t="s">
@@ -13185,7 +13196,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="42" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" ht="55.2">
       <c r="A131" s="6">
         <v>4</v>
       </c>
@@ -13199,7 +13210,7 @@
         <v>222</v>
       </c>
       <c r="E131" s="8"/>
-      <c r="F131" s="6" t="s">
+      <c r="F131" s="7" t="s">
         <v>504</v>
       </c>
       <c r="G131" s="9" t="s">
@@ -13254,7 +13265,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="42" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" ht="41.4">
       <c r="A132" s="6">
         <v>4</v>
       </c>
@@ -13268,7 +13279,7 @@
         <v>222</v>
       </c>
       <c r="E132" s="8"/>
-      <c r="F132" s="6" t="s">
+      <c r="F132" s="7" t="s">
         <v>505</v>
       </c>
       <c r="G132" s="9" t="s">
@@ -13323,7 +13334,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="28" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" ht="41.4">
       <c r="A133" s="6">
         <v>4</v>
       </c>
@@ -13337,7 +13348,7 @@
         <v>222</v>
       </c>
       <c r="E133" s="8"/>
-      <c r="F133" s="6" t="s">
+      <c r="F133" s="7" t="s">
         <v>506</v>
       </c>
       <c r="G133" s="9" t="s">
@@ -13392,7 +13403,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="42" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" ht="55.2">
       <c r="A134" s="6">
         <v>4</v>
       </c>
@@ -13406,7 +13417,7 @@
         <v>222</v>
       </c>
       <c r="E134" s="8"/>
-      <c r="F134" s="6" t="s">
+      <c r="F134" s="7" t="s">
         <v>507</v>
       </c>
       <c r="G134" s="9" t="s">
@@ -13461,13 +13472,13 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
-      <c r="F135" s="6"/>
+      <c r="F135" s="7"/>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
       <c r="I135" s="9"/>
@@ -13486,13 +13497,13 @@
       <c r="V135" s="10"/>
       <c r="W135" s="6"/>
     </row>
-    <row r="136" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
-      <c r="F136" s="6"/>
+      <c r="F136" s="7"/>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
       <c r="I136" s="9"/>
@@ -13517,13 +13528,13 @@
       <c r="V136" s="10"/>
       <c r="W136" s="6"/>
     </row>
-    <row r="137" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
-      <c r="F137" s="6"/>
+      <c r="F137" s="7"/>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
       <c r="I137" s="9"/>
@@ -13548,13 +13559,13 @@
       <c r="V137" s="10"/>
       <c r="W137" s="6"/>
     </row>
-    <row r="138" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
-      <c r="F138" s="6"/>
+      <c r="F138" s="7"/>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
       <c r="I138" s="9"/>
@@ -13579,13 +13590,13 @@
       <c r="V138" s="10"/>
       <c r="W138" s="6"/>
     </row>
-    <row r="139" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
-      <c r="F139" s="6"/>
+      <c r="F139" s="7"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
       <c r="I139" s="9"/>
@@ -13610,13 +13621,13 @@
       <c r="V139" s="10"/>
       <c r="W139" s="6"/>
     </row>
-    <row r="140" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
-      <c r="F140" s="6"/>
+      <c r="F140" s="7"/>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
       <c r="I140" s="9"/>
@@ -13641,13 +13652,13 @@
       <c r="V140" s="10"/>
       <c r="W140" s="6"/>
     </row>
-    <row r="141" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
-      <c r="F141" s="6"/>
+      <c r="F141" s="7"/>
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
       <c r="I141" s="9"/>
@@ -13669,13 +13680,13 @@
       <c r="V141" s="10"/>
       <c r="W141" s="6"/>
     </row>
-    <row r="142" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
-      <c r="F142" s="6"/>
+      <c r="F142" s="7"/>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
       <c r="I142" s="9"/>
@@ -13697,13 +13708,13 @@
       <c r="V142" s="10"/>
       <c r="W142" s="6"/>
     </row>
-    <row r="143" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
-      <c r="F143" s="6"/>
+      <c r="F143" s="7"/>
       <c r="G143" s="9"/>
       <c r="H143" s="9"/>
       <c r="I143" s="9"/>
@@ -13728,13 +13739,13 @@
       <c r="V143" s="10"/>
       <c r="W143" s="6"/>
     </row>
-    <row r="144" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
-      <c r="F144" s="6"/>
+      <c r="F144" s="7"/>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
       <c r="I144" s="9"/>
@@ -13759,13 +13770,13 @@
       <c r="V144" s="10"/>
       <c r="W144" s="6"/>
     </row>
-    <row r="145" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
-      <c r="F145" s="6"/>
+      <c r="F145" s="7"/>
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
       <c r="I145" s="9"/>
@@ -13790,13 +13801,13 @@
       <c r="V145" s="10"/>
       <c r="W145" s="6"/>
     </row>
-    <row r="146" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
-      <c r="F146" s="6"/>
+      <c r="F146" s="7"/>
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
       <c r="I146" s="9"/>
@@ -13821,13 +13832,13 @@
       <c r="V146" s="10"/>
       <c r="W146" s="6"/>
     </row>
-    <row r="147" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23">
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
-      <c r="F147" s="6"/>
+      <c r="F147" s="7"/>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
       <c r="I147" s="9"/>
@@ -13852,13 +13863,13 @@
       <c r="V147" s="10"/>
       <c r="W147" s="6"/>
     </row>
-    <row r="148" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
-      <c r="F148" s="6"/>
+      <c r="F148" s="7"/>
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
       <c r="I148" s="9"/>
@@ -13883,13 +13894,13 @@
       <c r="V148" s="10"/>
       <c r="W148" s="6"/>
     </row>
-    <row r="149" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23">
       <c r="A149" s="6"/>
       <c r="B149" s="7"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
-      <c r="F149" s="6"/>
+      <c r="F149" s="7"/>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
       <c r="I149" s="9"/>
@@ -13914,13 +13925,13 @@
       <c r="V149" s="10"/>
       <c r="W149" s="6"/>
     </row>
-    <row r="150" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23">
       <c r="A150" s="6"/>
       <c r="B150" s="7"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
-      <c r="F150" s="6"/>
+      <c r="F150" s="7"/>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
       <c r="I150" s="9"/>
@@ -13945,13 +13956,13 @@
       <c r="V150" s="10"/>
       <c r="W150" s="6"/>
     </row>
-    <row r="151" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23">
       <c r="A151" s="6"/>
       <c r="B151" s="7"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
-      <c r="F151" s="6"/>
+      <c r="F151" s="7"/>
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
       <c r="I151" s="9"/>
@@ -13976,13 +13987,13 @@
       <c r="V151" s="10"/>
       <c r="W151" s="6"/>
     </row>
-    <row r="152" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23">
       <c r="A152" s="6"/>
       <c r="B152" s="7"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
-      <c r="F152" s="6"/>
+      <c r="F152" s="7"/>
       <c r="G152" s="9"/>
       <c r="H152" s="9"/>
       <c r="I152" s="9"/>
@@ -14007,13 +14018,13 @@
       <c r="V152" s="10"/>
       <c r="W152" s="6"/>
     </row>
-    <row r="153" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23">
       <c r="A153" s="6"/>
       <c r="B153" s="7"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
-      <c r="F153" s="6"/>
+      <c r="F153" s="7"/>
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
       <c r="I153" s="9"/>
@@ -14038,13 +14049,13 @@
       <c r="V153" s="10"/>
       <c r="W153" s="6"/>
     </row>
-    <row r="154" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23">
       <c r="A154" s="6"/>
       <c r="B154" s="7"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
-      <c r="F154" s="6"/>
+      <c r="F154" s="7"/>
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
       <c r="I154" s="9"/>
@@ -14069,13 +14080,13 @@
       <c r="V154" s="10"/>
       <c r="W154" s="6"/>
     </row>
-    <row r="155" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
-      <c r="F155" s="6"/>
+      <c r="F155" s="7"/>
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
       <c r="I155" s="9"/>
@@ -14100,13 +14111,13 @@
       <c r="V155" s="10"/>
       <c r="W155" s="6"/>
     </row>
-    <row r="156" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23">
       <c r="A156" s="6"/>
       <c r="B156" s="7"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
-      <c r="F156" s="6"/>
+      <c r="F156" s="7"/>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
       <c r="I156" s="9"/>
@@ -14131,13 +14142,13 @@
       <c r="V156" s="10"/>
       <c r="W156" s="6"/>
     </row>
-    <row r="157" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
-      <c r="F157" s="6"/>
+      <c r="F157" s="7"/>
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
       <c r="I157" s="9"/>
@@ -14162,13 +14173,13 @@
       <c r="V157" s="10"/>
       <c r="W157" s="6"/>
     </row>
-    <row r="158" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23">
       <c r="A158" s="6"/>
       <c r="B158" s="7"/>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
-      <c r="F158" s="6"/>
+      <c r="F158" s="7"/>
       <c r="G158" s="9"/>
       <c r="H158" s="9"/>
       <c r="I158" s="9"/>
@@ -14193,13 +14204,13 @@
       <c r="V158" s="10"/>
       <c r="W158" s="6"/>
     </row>
-    <row r="159" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23">
       <c r="A159" s="6"/>
       <c r="B159" s="7"/>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
-      <c r="F159" s="6"/>
+      <c r="F159" s="7"/>
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
       <c r="I159" s="9"/>
@@ -14224,13 +14235,13 @@
       <c r="V159" s="10"/>
       <c r="W159" s="6"/>
     </row>
-    <row r="160" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
-      <c r="F160" s="6"/>
+      <c r="F160" s="7"/>
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
       <c r="I160" s="9"/>
@@ -14255,13 +14266,13 @@
       <c r="V160" s="10"/>
       <c r="W160" s="6"/>
     </row>
-    <row r="161" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23">
       <c r="A161" s="6"/>
       <c r="B161" s="7"/>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
-      <c r="F161" s="6"/>
+      <c r="F161" s="7"/>
       <c r="G161" s="9"/>
       <c r="H161" s="9"/>
       <c r="I161" s="9"/>
@@ -14286,13 +14297,13 @@
       <c r="V161" s="10"/>
       <c r="W161" s="6"/>
     </row>
-    <row r="162" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23">
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
-      <c r="F162" s="6"/>
+      <c r="F162" s="7"/>
       <c r="G162" s="9"/>
       <c r="H162" s="9"/>
       <c r="I162" s="9"/>
@@ -14317,13 +14328,13 @@
       <c r="V162" s="10"/>
       <c r="W162" s="6"/>
     </row>
-    <row r="163" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23">
       <c r="A163" s="6"/>
       <c r="B163" s="7"/>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
-      <c r="F163" s="6"/>
+      <c r="F163" s="7"/>
       <c r="G163" s="9"/>
       <c r="H163" s="9"/>
       <c r="I163" s="9"/>
@@ -14348,13 +14359,13 @@
       <c r="V163" s="10"/>
       <c r="W163" s="6"/>
     </row>
-    <row r="164" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23">
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
-      <c r="F164" s="6"/>
+      <c r="F164" s="7"/>
       <c r="G164" s="9"/>
       <c r="H164" s="9"/>
       <c r="I164" s="9"/>
@@ -14379,13 +14390,13 @@
       <c r="V164" s="10"/>
       <c r="W164" s="6"/>
     </row>
-    <row r="165" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23">
       <c r="A165" s="6"/>
       <c r="B165" s="7"/>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
-      <c r="F165" s="6"/>
+      <c r="F165" s="7"/>
       <c r="G165" s="9"/>
       <c r="H165" s="9"/>
       <c r="I165" s="9"/>
@@ -14410,13 +14421,13 @@
       <c r="V165" s="10"/>
       <c r="W165" s="6"/>
     </row>
-    <row r="166" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23">
       <c r="A166" s="6"/>
       <c r="B166" s="7"/>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
-      <c r="F166" s="6"/>
+      <c r="F166" s="7"/>
       <c r="G166" s="9"/>
       <c r="H166" s="9"/>
       <c r="I166" s="9"/>
@@ -14441,13 +14452,13 @@
       <c r="V166" s="10"/>
       <c r="W166" s="6"/>
     </row>
-    <row r="167" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:23">
       <c r="A167" s="6"/>
       <c r="B167" s="7"/>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
-      <c r="F167" s="6"/>
+      <c r="F167" s="7"/>
       <c r="G167" s="9"/>
       <c r="H167" s="9"/>
       <c r="I167" s="9"/>
@@ -14472,13 +14483,13 @@
       <c r="V167" s="10"/>
       <c r="W167" s="6"/>
     </row>
-    <row r="168" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23">
       <c r="A168" s="6"/>
       <c r="B168" s="7"/>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
-      <c r="F168" s="6"/>
+      <c r="F168" s="7"/>
       <c r="G168" s="9"/>
       <c r="H168" s="9"/>
       <c r="I168" s="9"/>
@@ -14503,13 +14514,13 @@
       <c r="V168" s="10"/>
       <c r="W168" s="6"/>
     </row>
-    <row r="169" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23">
       <c r="A169" s="6"/>
       <c r="B169" s="7"/>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
-      <c r="F169" s="6"/>
+      <c r="F169" s="7"/>
       <c r="G169" s="9"/>
       <c r="H169" s="9"/>
       <c r="I169" s="9"/>
@@ -14534,13 +14545,13 @@
       <c r="V169" s="10"/>
       <c r="W169" s="6"/>
     </row>
-    <row r="170" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23">
       <c r="A170" s="6"/>
       <c r="B170" s="7"/>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
-      <c r="F170" s="6"/>
+      <c r="F170" s="7"/>
       <c r="G170" s="9"/>
       <c r="H170" s="9"/>
       <c r="I170" s="9"/>
@@ -14565,13 +14576,13 @@
       <c r="V170" s="10"/>
       <c r="W170" s="6"/>
     </row>
-    <row r="171" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23">
       <c r="A171" s="6"/>
       <c r="B171" s="7"/>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
-      <c r="F171" s="6"/>
+      <c r="F171" s="7"/>
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
       <c r="I171" s="9"/>
@@ -14596,13 +14607,13 @@
       <c r="V171" s="10"/>
       <c r="W171" s="6"/>
     </row>
-    <row r="172" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23">
       <c r="A172" s="6"/>
       <c r="B172" s="7"/>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
-      <c r="F172" s="6"/>
+      <c r="F172" s="7"/>
       <c r="G172" s="9"/>
       <c r="H172" s="9"/>
       <c r="I172" s="9"/>
@@ -14627,13 +14638,13 @@
       <c r="V172" s="10"/>
       <c r="W172" s="6"/>
     </row>
-    <row r="173" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23">
       <c r="A173" s="6"/>
       <c r="B173" s="7"/>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
-      <c r="F173" s="6"/>
+      <c r="F173" s="7"/>
       <c r="G173" s="9"/>
       <c r="H173" s="9"/>
       <c r="I173" s="9"/>
@@ -14658,13 +14669,13 @@
       <c r="V173" s="10"/>
       <c r="W173" s="6"/>
     </row>
-    <row r="174" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23">
       <c r="A174" s="6"/>
       <c r="B174" s="7"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
-      <c r="F174" s="6"/>
+      <c r="F174" s="7"/>
       <c r="G174" s="9"/>
       <c r="H174" s="9"/>
       <c r="I174" s="9"/>
@@ -14689,13 +14700,13 @@
       <c r="V174" s="10"/>
       <c r="W174" s="6"/>
     </row>
-    <row r="175" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23">
       <c r="A175" s="6"/>
       <c r="B175" s="7"/>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
       <c r="E175" s="8"/>
-      <c r="F175" s="6"/>
+      <c r="F175" s="7"/>
       <c r="G175" s="9"/>
       <c r="H175" s="9"/>
       <c r="I175" s="9"/>
@@ -14720,13 +14731,13 @@
       <c r="V175" s="10"/>
       <c r="W175" s="6"/>
     </row>
-    <row r="176" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23">
       <c r="A176" s="6"/>
       <c r="B176" s="7"/>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
       <c r="E176" s="8"/>
-      <c r="F176" s="6"/>
+      <c r="F176" s="7"/>
       <c r="G176" s="9"/>
       <c r="H176" s="9"/>
       <c r="I176" s="9"/>
@@ -14751,13 +14762,13 @@
       <c r="V176" s="10"/>
       <c r="W176" s="6"/>
     </row>
-    <row r="177" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23">
       <c r="A177" s="6"/>
       <c r="B177" s="7"/>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
-      <c r="F177" s="6"/>
+      <c r="F177" s="7"/>
       <c r="G177" s="9"/>
       <c r="H177" s="9"/>
       <c r="I177" s="9"/>
@@ -14782,13 +14793,13 @@
       <c r="V177" s="10"/>
       <c r="W177" s="6"/>
     </row>
-    <row r="178" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23">
       <c r="A178" s="6"/>
       <c r="B178" s="7"/>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
-      <c r="F178" s="6"/>
+      <c r="F178" s="7"/>
       <c r="G178" s="9"/>
       <c r="H178" s="9"/>
       <c r="I178" s="9"/>
@@ -14813,13 +14824,13 @@
       <c r="V178" s="10"/>
       <c r="W178" s="6"/>
     </row>
-    <row r="179" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23">
       <c r="A179" s="6"/>
       <c r="B179" s="7"/>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
-      <c r="F179" s="6"/>
+      <c r="F179" s="7"/>
       <c r="G179" s="9"/>
       <c r="H179" s="9"/>
       <c r="I179" s="9"/>
@@ -14844,13 +14855,13 @@
       <c r="V179" s="10"/>
       <c r="W179" s="6"/>
     </row>
-    <row r="180" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23">
       <c r="A180" s="6"/>
       <c r="B180" s="7"/>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
-      <c r="F180" s="6"/>
+      <c r="F180" s="7"/>
       <c r="G180" s="9"/>
       <c r="H180" s="9"/>
       <c r="I180" s="9"/>
@@ -14875,13 +14886,13 @@
       <c r="V180" s="10"/>
       <c r="W180" s="6"/>
     </row>
-    <row r="181" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23">
       <c r="A181" s="6"/>
       <c r="B181" s="7"/>
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
-      <c r="F181" s="6"/>
+      <c r="F181" s="7"/>
       <c r="G181" s="9"/>
       <c r="H181" s="9"/>
       <c r="I181" s="9"/>
@@ -14906,13 +14917,13 @@
       <c r="V181" s="10"/>
       <c r="W181" s="6"/>
     </row>
-    <row r="182" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23">
       <c r="A182" s="6"/>
       <c r="B182" s="7"/>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
-      <c r="F182" s="6"/>
+      <c r="F182" s="7"/>
       <c r="G182" s="9"/>
       <c r="H182" s="9"/>
       <c r="I182" s="9"/>
@@ -14937,13 +14948,13 @@
       <c r="V182" s="10"/>
       <c r="W182" s="6"/>
     </row>
-    <row r="183" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23">
       <c r="A183" s="6"/>
       <c r="B183" s="7"/>
       <c r="C183" s="8"/>
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
-      <c r="F183" s="6"/>
+      <c r="F183" s="7"/>
       <c r="G183" s="9"/>
       <c r="H183" s="9"/>
       <c r="I183" s="9"/>
@@ -14968,13 +14979,13 @@
       <c r="V183" s="10"/>
       <c r="W183" s="6"/>
     </row>
-    <row r="184" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23">
       <c r="A184" s="6"/>
       <c r="B184" s="7"/>
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
-      <c r="F184" s="6"/>
+      <c r="F184" s="7"/>
       <c r="G184" s="9"/>
       <c r="H184" s="9"/>
       <c r="I184" s="9"/>
@@ -14999,13 +15010,13 @@
       <c r="V184" s="10"/>
       <c r="W184" s="6"/>
     </row>
-    <row r="185" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23">
       <c r="A185" s="6"/>
       <c r="B185" s="7"/>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
-      <c r="F185" s="6"/>
+      <c r="F185" s="7"/>
       <c r="G185" s="9"/>
       <c r="H185" s="9"/>
       <c r="I185" s="9"/>
@@ -15030,13 +15041,13 @@
       <c r="V185" s="10"/>
       <c r="W185" s="6"/>
     </row>
-    <row r="186" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23">
       <c r="A186" s="6"/>
       <c r="B186" s="7"/>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
-      <c r="F186" s="6"/>
+      <c r="F186" s="7"/>
       <c r="G186" s="9"/>
       <c r="H186" s="9"/>
       <c r="I186" s="9"/>
@@ -15061,13 +15072,13 @@
       <c r="V186" s="10"/>
       <c r="W186" s="6"/>
     </row>
-    <row r="187" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23">
       <c r="A187" s="6"/>
       <c r="B187" s="7"/>
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
-      <c r="F187" s="6"/>
+      <c r="F187" s="7"/>
       <c r="G187" s="9"/>
       <c r="H187" s="9"/>
       <c r="I187" s="9"/>
@@ -15092,13 +15103,13 @@
       <c r="V187" s="10"/>
       <c r="W187" s="6"/>
     </row>
-    <row r="188" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23">
       <c r="A188" s="6"/>
       <c r="B188" s="7"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
-      <c r="F188" s="6"/>
+      <c r="F188" s="7"/>
       <c r="G188" s="9"/>
       <c r="H188" s="9"/>
       <c r="I188" s="9"/>
@@ -15123,13 +15134,13 @@
       <c r="V188" s="10"/>
       <c r="W188" s="6"/>
     </row>
-    <row r="189" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:23">
       <c r="A189" s="6"/>
       <c r="B189" s="7"/>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
-      <c r="F189" s="6"/>
+      <c r="F189" s="7"/>
       <c r="G189" s="9"/>
       <c r="H189" s="9"/>
       <c r="I189" s="9"/>
@@ -15154,13 +15165,13 @@
       <c r="V189" s="10"/>
       <c r="W189" s="6"/>
     </row>
-    <row r="190" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:23" ht="14.4">
       <c r="A190" s="6"/>
       <c r="B190" s="7"/>
       <c r="C190" s="16"/>
       <c r="D190" s="16"/>
       <c r="E190" s="16"/>
-      <c r="F190" s="6"/>
+      <c r="F190" s="7"/>
       <c r="G190" s="17"/>
       <c r="H190" s="17"/>
       <c r="I190" s="17"/>
@@ -15185,13 +15196,13 @@
       <c r="V190" s="10"/>
       <c r="W190" s="6"/>
     </row>
-    <row r="191" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:23" ht="14.4">
       <c r="A191" s="6"/>
       <c r="B191" s="7"/>
       <c r="C191" s="16"/>
       <c r="D191" s="16"/>
       <c r="E191" s="16"/>
-      <c r="F191" s="6"/>
+      <c r="F191" s="7"/>
       <c r="G191" s="17"/>
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
@@ -15216,13 +15227,13 @@
       <c r="V191" s="10"/>
       <c r="W191" s="6"/>
     </row>
-    <row r="192" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:23" ht="14.4">
       <c r="A192" s="6"/>
       <c r="B192" s="7"/>
       <c r="C192" s="16"/>
       <c r="D192" s="16"/>
       <c r="E192" s="16"/>
-      <c r="F192" s="6"/>
+      <c r="F192" s="7"/>
       <c r="G192" s="17"/>
       <c r="H192" s="17"/>
       <c r="I192" s="17"/>
@@ -15247,13 +15258,13 @@
       <c r="V192" s="10"/>
       <c r="W192" s="6"/>
     </row>
-    <row r="193" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:23" ht="14.4">
       <c r="A193" s="6"/>
       <c r="B193" s="7"/>
       <c r="C193" s="16"/>
       <c r="D193" s="16"/>
       <c r="E193" s="16"/>
-      <c r="F193" s="6"/>
+      <c r="F193" s="7"/>
       <c r="G193" s="17"/>
       <c r="H193" s="17"/>
       <c r="I193" s="17"/>
@@ -15278,13 +15289,13 @@
       <c r="V193" s="10"/>
       <c r="W193" s="6"/>
     </row>
-    <row r="194" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:23" ht="14.4">
       <c r="A194" s="6"/>
       <c r="B194" s="7"/>
       <c r="C194" s="16"/>
       <c r="D194" s="16"/>
       <c r="E194" s="16"/>
-      <c r="F194" s="6"/>
+      <c r="F194" s="7"/>
       <c r="G194" s="17"/>
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
@@ -15309,13 +15320,13 @@
       <c r="V194" s="10"/>
       <c r="W194" s="6"/>
     </row>
-    <row r="195" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:23" ht="14.4">
       <c r="A195" s="6"/>
       <c r="B195" s="7"/>
       <c r="C195" s="16"/>
       <c r="D195" s="16"/>
       <c r="E195" s="16"/>
-      <c r="F195" s="6"/>
+      <c r="F195" s="7"/>
       <c r="G195" s="17"/>
       <c r="H195" s="17"/>
       <c r="I195" s="17"/>
@@ -15340,13 +15351,13 @@
       <c r="V195" s="10"/>
       <c r="W195" s="6"/>
     </row>
-    <row r="196" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:23" ht="14.4">
       <c r="A196" s="6"/>
       <c r="B196" s="7"/>
       <c r="C196" s="16"/>
       <c r="D196" s="16"/>
       <c r="E196" s="16"/>
-      <c r="F196" s="6"/>
+      <c r="F196" s="7"/>
       <c r="G196" s="17"/>
       <c r="H196" s="17"/>
       <c r="I196" s="17"/>
@@ -15371,13 +15382,13 @@
       <c r="V196" s="10"/>
       <c r="W196" s="6"/>
     </row>
-    <row r="197" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:23" ht="14.4">
       <c r="A197" s="6"/>
       <c r="B197" s="7"/>
       <c r="C197" s="16"/>
       <c r="D197" s="16"/>
       <c r="E197" s="16"/>
-      <c r="F197" s="6"/>
+      <c r="F197" s="7"/>
       <c r="G197" s="17"/>
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
@@ -15402,13 +15413,13 @@
       <c r="V197" s="10"/>
       <c r="W197" s="6"/>
     </row>
-    <row r="198" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:23" ht="14.4">
       <c r="A198" s="6"/>
       <c r="B198" s="7"/>
       <c r="C198" s="16"/>
       <c r="D198" s="16"/>
       <c r="E198" s="16"/>
-      <c r="F198" s="6"/>
+      <c r="F198" s="7"/>
       <c r="G198" s="17"/>
       <c r="H198" s="17"/>
       <c r="I198" s="17"/>
@@ -15433,13 +15444,13 @@
       <c r="V198" s="10"/>
       <c r="W198" s="6"/>
     </row>
-    <row r="199" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:23" ht="14.4">
       <c r="A199" s="6"/>
       <c r="B199" s="7"/>
       <c r="C199" s="16"/>
       <c r="D199" s="16"/>
       <c r="E199" s="16"/>
-      <c r="F199" s="6"/>
+      <c r="F199" s="7"/>
       <c r="G199" s="17"/>
       <c r="H199" s="17"/>
       <c r="I199" s="17"/>
@@ -15464,13 +15475,13 @@
       <c r="V199" s="10"/>
       <c r="W199" s="6"/>
     </row>
-    <row r="200" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:23" ht="14.4">
       <c r="A200" s="6"/>
       <c r="B200" s="7"/>
       <c r="C200" s="16"/>
       <c r="D200" s="16"/>
       <c r="E200" s="16"/>
-      <c r="F200" s="6"/>
+      <c r="F200" s="7"/>
       <c r="G200" s="17"/>
       <c r="H200" s="17"/>
       <c r="I200" s="17"/>
@@ -15495,13 +15506,13 @@
       <c r="V200" s="10"/>
       <c r="W200" s="6"/>
     </row>
-    <row r="201" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:23" ht="14.4">
       <c r="A201" s="6"/>
       <c r="B201" s="7"/>
       <c r="C201" s="16"/>
       <c r="D201" s="16"/>
       <c r="E201" s="16"/>
-      <c r="F201" s="6"/>
+      <c r="F201" s="7"/>
       <c r="G201" s="17"/>
       <c r="H201" s="17"/>
       <c r="I201" s="17"/>
@@ -15526,13 +15537,13 @@
       <c r="V201" s="10"/>
       <c r="W201" s="6"/>
     </row>
-    <row r="202" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:23" ht="14.4">
       <c r="A202" s="6"/>
       <c r="B202" s="7"/>
       <c r="C202" s="16"/>
       <c r="D202" s="16"/>
       <c r="E202" s="16"/>
-      <c r="F202" s="6"/>
+      <c r="F202" s="7"/>
       <c r="G202" s="17"/>
       <c r="H202" s="17"/>
       <c r="I202" s="17"/>
@@ -15557,13 +15568,13 @@
       <c r="V202" s="10"/>
       <c r="W202" s="6"/>
     </row>
-    <row r="203" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:23" ht="14.4">
       <c r="A203" s="6"/>
       <c r="B203" s="7"/>
       <c r="C203" s="16"/>
       <c r="D203" s="16"/>
       <c r="E203" s="16"/>
-      <c r="F203" s="6"/>
+      <c r="F203" s="7"/>
       <c r="G203" s="17"/>
       <c r="H203" s="17"/>
       <c r="I203" s="17"/>
@@ -15588,13 +15599,13 @@
       <c r="V203" s="10"/>
       <c r="W203" s="6"/>
     </row>
-    <row r="204" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:23" ht="14.4">
       <c r="A204" s="6"/>
       <c r="B204" s="7"/>
       <c r="C204" s="16"/>
       <c r="D204" s="16"/>
       <c r="E204" s="16"/>
-      <c r="F204" s="6"/>
+      <c r="F204" s="7"/>
       <c r="G204" s="17"/>
       <c r="H204" s="17"/>
       <c r="I204" s="17"/>

--- a/miniproject/template/Lectures/Lecture 4.xlsx
+++ b/miniproject/template/Lectures/Lecture 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S_AGI\Documents\GitHub\AI_teaching_project\miniproject\template\Lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74345C54-E6A2-4248-A139-8E08F82E2DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282C4E9C-7A42-42F3-8FF4-97A2D7258943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4368,8 +4368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4941C4A-9E3C-4E4A-B7BE-53D75DF3423A}">
   <dimension ref="A1:AB204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F44" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F11" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
